--- a/database/sidis/expdata/5041.xlsx
+++ b/database/sidis/expdata/5041.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_160c\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fafd12/GIT/jam3d/database/sidis/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="373" documentId="13_ncr:1_{D21D06C4-579E-7B49-80A9-91E5A78FC89C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{60C09310-D693-41B5-B9BD-FE6DA0298829}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0DC97F-9B04-4F41-A118-7A303EBC3D16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="2025" windowWidth="27645" windowHeight="16935" xr2:uid="{40D5FA6D-D976-DB4C-877A-4E5297C3ACBE}"/>
+    <workbookView xWindow="3980" yWindow="2020" windowWidth="27640" windowHeight="16940" xr2:uid="{40D5FA6D-D976-DB4C-877A-4E5297C3ACBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="22">
   <si>
     <t>col</t>
   </si>
@@ -93,6 +85,12 @@
   </si>
   <si>
     <t>deuteron</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -445,15 +443,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADDAD81-CBF2-0F48-BABD-E1A9E33D56C7}">
-  <dimension ref="A1:P109"/>
+  <dimension ref="A1:R109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -502,8 +500,14 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -557,7 +561,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -611,7 +615,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -665,7 +669,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -719,7 +723,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -773,7 +777,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -827,7 +831,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -881,7 +885,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -935,7 +939,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -989,7 +993,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1043,7 +1047,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1097,7 +1101,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1151,7 +1155,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1205,7 +1209,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1259,7 +1263,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>16</v>
       </c>

--- a/database/sidis/expdata/5041.xlsx
+++ b/database/sidis/expdata/5041.xlsx
@@ -1,31 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23120"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fafd12/GIT/jam3d/database/sidis/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_160c\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0DC97F-9B04-4F41-A118-7A303EBC3D16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="609" documentId="13_ncr:1_{D21D06C4-579E-7B49-80A9-91E5A78FC89C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0CE64CEF-9B05-4E29-8B67-868824A82176}"/>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="2020" windowWidth="27640" windowHeight="16940" xr2:uid="{40D5FA6D-D976-DB4C-877A-4E5297C3ACBE}"/>
+    <workbookView xWindow="3975" yWindow="2025" windowWidth="27645" windowHeight="16935" xr2:uid="{40D5FA6D-D976-DB4C-877A-4E5297C3ACBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="21">
   <si>
     <t>col</t>
   </si>
@@ -75,6 +83,9 @@
     <t>sys_u</t>
   </si>
   <si>
+    <t>Q2</t>
+  </si>
+  <si>
     <t>COMPASS</t>
   </si>
   <si>
@@ -85,12 +96,6 @@
   </si>
   <si>
     <t>deuteron</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>y</t>
   </si>
 </sst>
 </file>
@@ -443,15 +448,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADDAD81-CBF2-0F48-BABD-E1A9E33D56C7}">
-  <dimension ref="A1:R109"/>
+  <dimension ref="A1:Q109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -501,24 +506,21 @@
         <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3.0000000000000001E-3</v>
@@ -527,8 +529,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G2">
-        <f>(E2+F2)/2</f>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H2">
         <v>0.2</v>
@@ -537,8 +538,7 @@
         <v>0.25</v>
       </c>
       <c r="J2">
-        <f>(H2+I2)/2</f>
-        <v>0.22500000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="K2">
         <v>0.1</v>
@@ -547,8 +547,7 @@
         <v>0.3</v>
       </c>
       <c r="M2">
-        <f>(K2+L2)/2</f>
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="N2">
         <v>4.3999999999999997E-2</v>
@@ -560,19 +559,22 @@
         <f>2*O2</f>
         <v>4.2000000000000003E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="Q2">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>3.0000000000000001E-3</v>
@@ -581,8 +583,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G6" si="0">(E3+F3)/2</f>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H3">
         <v>0.2</v>
@@ -591,8 +592,7 @@
         <v>0.25</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J66" si="1">(H3+I3)/2</f>
-        <v>0.22500000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="K3">
         <v>0.3</v>
@@ -601,7 +601,6 @@
         <v>0.5</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M4" si="2">(K3+L3)/2</f>
         <v>0.4</v>
       </c>
       <c r="N3">
@@ -611,22 +610,25 @@
         <v>0.02</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P66" si="3">2*O3</f>
+        <f t="shared" ref="P3:P66" si="0">2*O3</f>
         <v>0.04</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="Q3">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3.0000000000000001E-3</v>
@@ -635,8 +637,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H4">
         <v>0.2</v>
@@ -645,8 +646,7 @@
         <v>0.25</v>
       </c>
       <c r="J4">
-        <f t="shared" si="1"/>
-        <v>0.22500000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="K4">
         <v>0.5</v>
@@ -655,8 +655,7 @@
         <v>0.64</v>
       </c>
       <c r="M4">
-        <f t="shared" si="2"/>
-        <v>0.57000000000000006</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="N4">
         <v>4.2000000000000003E-2</v>
@@ -665,22 +664,25 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="P4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>5.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="Q4">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3.0000000000000001E-3</v>
@@ -689,8 +691,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H5">
         <v>0.2</v>
@@ -699,8 +700,7 @@
         <v>0.25</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
-        <v>0.22500000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="K5">
         <v>0.64</v>
@@ -709,8 +709,7 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <f>(K5+L5)/2</f>
-        <v>0.82000000000000006</v>
+        <v>0.78</v>
       </c>
       <c r="N5">
         <v>5.8000000000000003E-2</v>
@@ -719,22 +718,25 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="P5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>5.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="Q5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3.0000000000000001E-3</v>
@@ -743,8 +745,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H6">
         <v>0.25</v>
@@ -753,8 +754,7 @@
         <v>0.32</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
-        <v>0.28500000000000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K6">
         <v>0.1</v>
@@ -763,8 +763,7 @@
         <v>0.3</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6:M69" si="4">(K6+L6)/2</f>
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="N6">
         <v>-5.0000000000000001E-3</v>
@@ -773,22 +772,25 @@
         <v>2.4E-2</v>
       </c>
       <c r="P6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="Q6">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3.0000000000000001E-3</v>
@@ -797,8 +799,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7:G26" si="5">(E7+F7)/2</f>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H7">
         <v>0.25</v>
@@ -807,8 +808,7 @@
         <v>0.32</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
-        <v>0.28500000000000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K7">
         <v>0.3</v>
@@ -817,7 +817,7 @@
         <v>0.5</v>
       </c>
       <c r="M7">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="M7:M70" si="1">(K7+L7)/2</f>
         <v>0.4</v>
       </c>
       <c r="N7">
@@ -827,22 +827,25 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="P7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4.2000000000000003E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="Q7">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3.0000000000000001E-3</v>
@@ -851,8 +854,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G8">
-        <f t="shared" si="5"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H8">
         <v>0.25</v>
@@ -861,8 +863,7 @@
         <v>0.32</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
-        <v>0.28500000000000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K8">
         <v>0.5</v>
@@ -871,7 +872,7 @@
         <v>0.64</v>
       </c>
       <c r="M8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N8">
@@ -881,22 +882,25 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="P8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>5.8000000000000003E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="Q8">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>3.0000000000000001E-3</v>
@@ -905,8 +909,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G9">
-        <f t="shared" si="5"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H9">
         <v>0.25</v>
@@ -915,8 +918,7 @@
         <v>0.32</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
-        <v>0.28500000000000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K9">
         <v>0.64</v>
@@ -925,8 +927,7 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <f t="shared" si="4"/>
-        <v>0.82000000000000006</v>
+        <v>0.78</v>
       </c>
       <c r="N9">
         <v>2.4E-2</v>
@@ -935,22 +936,25 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="P9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>5.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="Q9">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3.0000000000000001E-3</v>
@@ -959,8 +963,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G10">
-        <f t="shared" si="5"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H10">
         <v>0.32</v>
@@ -969,7 +972,7 @@
         <v>0.4</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J3:J66" si="2">(H10+I10)/2</f>
         <v>0.36</v>
       </c>
       <c r="K10">
@@ -979,8 +982,7 @@
         <v>0.3</v>
       </c>
       <c r="M10">
-        <f t="shared" si="4"/>
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="N10">
         <v>-2E-3</v>
@@ -989,22 +991,25 @@
         <v>0.03</v>
       </c>
       <c r="P10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="Q10">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3.0000000000000001E-3</v>
@@ -1013,8 +1018,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G11">
-        <f t="shared" si="5"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H11">
         <v>0.32</v>
@@ -1023,7 +1027,7 @@
         <v>0.4</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36</v>
       </c>
       <c r="K11">
@@ -1033,7 +1037,6 @@
         <v>0.5</v>
       </c>
       <c r="M11">
-        <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
       <c r="N11">
@@ -1043,22 +1046,25 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="P11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="Q11">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3.0000000000000001E-3</v>
@@ -1067,8 +1073,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G12">
-        <f t="shared" si="5"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H12">
         <v>0.32</v>
@@ -1077,7 +1082,7 @@
         <v>0.4</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36</v>
       </c>
       <c r="K12">
@@ -1087,7 +1092,7 @@
         <v>0.64</v>
       </c>
       <c r="M12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N12">
@@ -1097,22 +1102,25 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="P12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>6.6000000000000003E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="Q12">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>3.0000000000000001E-3</v>
@@ -1121,8 +1129,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G13">
-        <f t="shared" si="5"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H13">
         <v>0.32</v>
@@ -1131,7 +1138,7 @@
         <v>0.4</v>
       </c>
       <c r="J13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36</v>
       </c>
       <c r="K13">
@@ -1141,8 +1148,7 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <f t="shared" si="4"/>
-        <v>0.82000000000000006</v>
+        <v>0.78</v>
       </c>
       <c r="N13">
         <v>0.112</v>
@@ -1151,22 +1157,25 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="P13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>5.8000000000000003E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="Q13">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3.0000000000000001E-3</v>
@@ -1175,8 +1184,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G14">
-        <f t="shared" si="5"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H14">
         <v>0.4</v>
@@ -1185,8 +1193,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
-        <v>0.47500000000000003</v>
+        <v>0.46</v>
       </c>
       <c r="K14">
         <v>0.1</v>
@@ -1195,8 +1202,7 @@
         <v>0.3</v>
       </c>
       <c r="M14">
-        <f t="shared" si="4"/>
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="N14">
         <v>0.14199999999999999</v>
@@ -1205,22 +1211,25 @@
         <v>3.1E-2</v>
       </c>
       <c r="P14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="Q14">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>3.0000000000000001E-3</v>
@@ -1229,8 +1238,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G15">
-        <f t="shared" si="5"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H15">
         <v>0.4</v>
@@ -1239,8 +1247,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
-        <v>0.47500000000000003</v>
+        <v>0.46</v>
       </c>
       <c r="K15">
         <v>0.3</v>
@@ -1249,7 +1256,7 @@
         <v>0.5</v>
       </c>
       <c r="M15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="N15">
@@ -1259,22 +1266,25 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="P15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>5.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="Q15">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>3.0000000000000001E-3</v>
@@ -1283,8 +1293,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G16">
-        <f t="shared" si="5"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H16">
         <v>0.4</v>
@@ -1293,8 +1302,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
-        <v>0.47500000000000003</v>
+        <v>0.46</v>
       </c>
       <c r="K16">
         <v>0.5</v>
@@ -1303,7 +1311,7 @@
         <v>0.64</v>
       </c>
       <c r="M16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N16">
@@ -1313,22 +1321,25 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="P16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3.0000000000000001E-3</v>
@@ -1337,8 +1348,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G17">
-        <f t="shared" si="5"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H17">
         <v>0.4</v>
@@ -1347,8 +1357,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J17">
-        <f t="shared" si="1"/>
-        <v>0.47500000000000003</v>
+        <v>0.47</v>
       </c>
       <c r="K17">
         <v>0.64</v>
@@ -1357,8 +1366,7 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <f t="shared" si="4"/>
-        <v>0.82000000000000006</v>
+        <v>0.79</v>
       </c>
       <c r="N17">
         <v>3.9E-2</v>
@@ -1367,22 +1375,25 @@
         <v>0.03</v>
       </c>
       <c r="P17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>3.0000000000000001E-3</v>
@@ -1391,8 +1402,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G18">
-        <f t="shared" si="5"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H18">
         <v>0.55000000000000004</v>
@@ -1401,8 +1411,7 @@
         <v>0.7</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
-        <v>0.625</v>
+        <v>0.61</v>
       </c>
       <c r="K18">
         <v>0.1</v>
@@ -1411,8 +1420,7 @@
         <v>0.3</v>
       </c>
       <c r="M18">
-        <f t="shared" si="4"/>
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="N18">
         <v>0.21299999999999999</v>
@@ -1421,22 +1429,25 @@
         <v>4.7E-2</v>
       </c>
       <c r="P18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9.4E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E19">
         <v>3.0000000000000001E-3</v>
@@ -1445,8 +1456,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G19">
-        <f t="shared" si="5"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H19">
         <v>0.55000000000000004</v>
@@ -1455,8 +1465,7 @@
         <v>0.7</v>
       </c>
       <c r="J19">
-        <f t="shared" si="1"/>
-        <v>0.625</v>
+        <v>0.62</v>
       </c>
       <c r="K19">
         <v>0.3</v>
@@ -1465,7 +1474,6 @@
         <v>0.5</v>
       </c>
       <c r="M19">
-        <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
       <c r="N19">
@@ -1475,22 +1483,25 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="P19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>7.5999999999999998E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>3.0000000000000001E-3</v>
@@ -1499,8 +1510,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G20">
-        <f t="shared" si="5"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H20">
         <v>0.55000000000000004</v>
@@ -1509,8 +1519,7 @@
         <v>0.7</v>
       </c>
       <c r="J20">
-        <f t="shared" si="1"/>
-        <v>0.625</v>
+        <v>0.61</v>
       </c>
       <c r="K20">
         <v>0.5</v>
@@ -1519,7 +1528,7 @@
         <v>0.64</v>
       </c>
       <c r="M20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N20">
@@ -1529,22 +1538,25 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="P20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.112</v>
       </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>3.0000000000000001E-3</v>
@@ -1553,8 +1565,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G21">
-        <f t="shared" si="5"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H21">
         <v>0.55000000000000004</v>
@@ -1563,8 +1574,7 @@
         <v>0.7</v>
       </c>
       <c r="J21">
-        <f t="shared" si="1"/>
-        <v>0.625</v>
+        <v>0.62</v>
       </c>
       <c r="K21">
         <v>0.64</v>
@@ -1573,8 +1583,7 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <f t="shared" si="4"/>
-        <v>0.82000000000000006</v>
+        <v>0.8</v>
       </c>
       <c r="N21">
         <v>0.108</v>
@@ -1583,22 +1592,25 @@
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="P21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>8.5999999999999993E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="Q21">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>3.0000000000000001E-3</v>
@@ -1607,8 +1619,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G22">
-        <f t="shared" si="5"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H22">
         <v>0.7</v>
@@ -1617,8 +1628,7 @@
         <v>0.85</v>
       </c>
       <c r="J22">
-        <f>(H22+I22)/2</f>
-        <v>0.77499999999999991</v>
+        <v>0.77</v>
       </c>
       <c r="K22">
         <v>0.1</v>
@@ -1627,8 +1637,7 @@
         <v>0.3</v>
       </c>
       <c r="M22">
-        <f t="shared" si="4"/>
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="N22">
         <v>0.16700000000000001</v>
@@ -1637,22 +1646,25 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="P22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="Q22">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E23">
         <v>3.0000000000000001E-3</v>
@@ -1661,8 +1673,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G23">
-        <f t="shared" si="5"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H23">
         <v>0.7</v>
@@ -1671,8 +1682,7 @@
         <v>0.85</v>
       </c>
       <c r="J23">
-        <f t="shared" si="1"/>
-        <v>0.77499999999999991</v>
+        <v>0.77</v>
       </c>
       <c r="K23">
         <v>0.3</v>
@@ -1681,8 +1691,7 @@
         <v>0.5</v>
       </c>
       <c r="M23">
-        <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="N23">
         <v>0.17</v>
@@ -1691,22 +1700,25 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="P23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.112</v>
       </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="Q23">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E24">
         <v>3.0000000000000001E-3</v>
@@ -1715,8 +1727,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G24">
-        <f t="shared" si="5"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H24">
         <v>0.7</v>
@@ -1725,8 +1736,7 @@
         <v>0.85</v>
       </c>
       <c r="J24">
-        <f t="shared" si="1"/>
-        <v>0.77499999999999991</v>
+        <v>0.77</v>
       </c>
       <c r="K24">
         <v>0.5</v>
@@ -1735,8 +1745,7 @@
         <v>0.64</v>
       </c>
       <c r="M24">
-        <f t="shared" si="4"/>
-        <v>0.57000000000000006</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="N24">
         <v>7.4999999999999997E-2</v>
@@ -1745,22 +1754,25 @@
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="P24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="Q24">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E25">
         <v>3.0000000000000001E-3</v>
@@ -1769,8 +1781,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G25">
-        <f t="shared" si="5"/>
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H25">
         <v>0.7</v>
@@ -1779,8 +1790,7 @@
         <v>0.85</v>
       </c>
       <c r="J25">
-        <f t="shared" si="1"/>
-        <v>0.77499999999999991</v>
+        <v>0.77</v>
       </c>
       <c r="K25">
         <v>0.64</v>
@@ -1789,8 +1799,7 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <f t="shared" si="4"/>
-        <v>0.82000000000000006</v>
+        <v>0.8</v>
       </c>
       <c r="N25">
         <v>-2.1000000000000001E-2</v>
@@ -1799,22 +1808,25 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="P25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.13400000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="Q25">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>1.2E-2</v>
@@ -1823,7 +1835,7 @@
         <v>0.02</v>
       </c>
       <c r="G26">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="G7:G26" si="3">(E26+F26)/2</f>
         <v>1.6E-2</v>
       </c>
       <c r="H26">
@@ -1833,8 +1845,7 @@
         <v>0.25</v>
       </c>
       <c r="J26">
-        <f t="shared" si="1"/>
-        <v>0.22500000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="K26">
         <v>0.1</v>
@@ -1843,8 +1854,7 @@
         <v>0.3</v>
       </c>
       <c r="M26">
-        <f t="shared" si="4"/>
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="N26">
         <v>-1.2999999999999999E-2</v>
@@ -1853,22 +1863,25 @@
         <v>1.6E-2</v>
       </c>
       <c r="P26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3.2000000000000001E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="Q26">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>1.2E-2</v>
@@ -1877,7 +1890,7 @@
         <v>0.02</v>
       </c>
       <c r="G27">
-        <f t="shared" ref="G27:G50" si="6">(E27+F27)/2</f>
+        <f t="shared" ref="G27:G50" si="4">(E27+F27)/2</f>
         <v>1.6E-2</v>
       </c>
       <c r="H27">
@@ -1887,8 +1900,7 @@
         <v>0.25</v>
       </c>
       <c r="J27">
-        <f t="shared" si="1"/>
-        <v>0.22500000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="K27">
         <v>0.3</v>
@@ -1897,7 +1909,7 @@
         <v>0.5</v>
       </c>
       <c r="M27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="N27">
@@ -1907,22 +1919,25 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="P27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="Q27">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E28">
         <v>1.2E-2</v>
@@ -1931,7 +1946,7 @@
         <v>0.02</v>
       </c>
       <c r="G28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.6E-2</v>
       </c>
       <c r="H28">
@@ -1941,8 +1956,7 @@
         <v>0.25</v>
       </c>
       <c r="J28">
-        <f t="shared" si="1"/>
-        <v>0.22500000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="K28">
         <v>0.5</v>
@@ -1951,8 +1965,7 @@
         <v>0.64</v>
       </c>
       <c r="M28">
-        <f t="shared" si="4"/>
-        <v>0.57000000000000006</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="N28">
         <v>8.9999999999999993E-3</v>
@@ -1961,22 +1974,25 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="P28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4.2000000000000003E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="Q28">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E29">
         <v>1.2E-2</v>
@@ -1985,7 +2001,7 @@
         <v>0.02</v>
       </c>
       <c r="G29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.6E-2</v>
       </c>
       <c r="H29">
@@ -1995,8 +2011,7 @@
         <v>0.25</v>
       </c>
       <c r="J29">
-        <f t="shared" si="1"/>
-        <v>0.22500000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="K29">
         <v>0.64</v>
@@ -2005,8 +2020,7 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <f t="shared" si="4"/>
-        <v>0.82000000000000006</v>
+        <v>0.77</v>
       </c>
       <c r="N29">
         <v>-1.4E-2</v>
@@ -2015,22 +2029,25 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="P29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4.2000000000000003E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="Q29">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E30">
         <v>1.2E-2</v>
@@ -2039,7 +2056,7 @@
         <v>0.02</v>
       </c>
       <c r="G30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.6E-2</v>
       </c>
       <c r="H30">
@@ -2049,8 +2066,7 @@
         <v>0.32</v>
       </c>
       <c r="J30">
-        <f t="shared" si="1"/>
-        <v>0.28500000000000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K30">
         <v>0.1</v>
@@ -2059,8 +2075,7 @@
         <v>0.3</v>
       </c>
       <c r="M30">
-        <f t="shared" si="4"/>
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="N30">
         <v>2.5999999999999999E-2</v>
@@ -2069,22 +2084,25 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="P30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="Q30">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E31">
         <v>1.2E-2</v>
@@ -2093,7 +2111,7 @@
         <v>0.02</v>
       </c>
       <c r="G31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.6E-2</v>
       </c>
       <c r="H31">
@@ -2103,8 +2121,7 @@
         <v>0.32</v>
       </c>
       <c r="J31">
-        <f t="shared" si="1"/>
-        <v>0.28500000000000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K31">
         <v>0.3</v>
@@ -2113,7 +2130,7 @@
         <v>0.5</v>
       </c>
       <c r="M31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="N31">
@@ -2123,22 +2140,25 @@
         <v>1.6E-2</v>
       </c>
       <c r="P31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3.2000000000000001E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="Q31">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E32">
         <v>1.2E-2</v>
@@ -2147,7 +2167,7 @@
         <v>0.02</v>
       </c>
       <c r="G32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.6E-2</v>
       </c>
       <c r="H32">
@@ -2157,8 +2177,7 @@
         <v>0.32</v>
       </c>
       <c r="J32">
-        <f t="shared" si="1"/>
-        <v>0.28500000000000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K32">
         <v>0.5</v>
@@ -2167,7 +2186,7 @@
         <v>0.64</v>
       </c>
       <c r="M32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N32">
@@ -2177,22 +2196,25 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="P32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4.3999999999999997E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="Q32">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E33">
         <v>1.2E-2</v>
@@ -2201,7 +2223,7 @@
         <v>0.02</v>
       </c>
       <c r="G33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.6E-2</v>
       </c>
       <c r="H33">
@@ -2211,8 +2233,7 @@
         <v>0.32</v>
       </c>
       <c r="J33">
-        <f t="shared" si="1"/>
-        <v>0.28500000000000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K33">
         <v>0.64</v>
@@ -2221,8 +2242,7 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <f t="shared" si="4"/>
-        <v>0.82000000000000006</v>
+        <v>0.78</v>
       </c>
       <c r="N33">
         <v>5.8999999999999997E-2</v>
@@ -2231,22 +2251,25 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="P33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4.2000000000000003E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="Q33">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E34">
         <v>1.2E-2</v>
@@ -2255,7 +2278,7 @@
         <v>0.02</v>
       </c>
       <c r="G34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.6E-2</v>
       </c>
       <c r="H34">
@@ -2265,7 +2288,7 @@
         <v>0.4</v>
       </c>
       <c r="J34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36</v>
       </c>
       <c r="K34">
@@ -2275,8 +2298,7 @@
         <v>0.3</v>
       </c>
       <c r="M34">
-        <f t="shared" si="4"/>
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="N34">
         <v>7.9000000000000001E-2</v>
@@ -2285,22 +2307,25 @@
         <v>2.3E-2</v>
       </c>
       <c r="P34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="Q34">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E35">
         <v>1.2E-2</v>
@@ -2309,7 +2334,7 @@
         <v>0.02</v>
       </c>
       <c r="G35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.6E-2</v>
       </c>
       <c r="H35">
@@ -2319,7 +2344,7 @@
         <v>0.4</v>
       </c>
       <c r="J35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36</v>
       </c>
       <c r="K35">
@@ -2329,7 +2354,7 @@
         <v>0.5</v>
       </c>
       <c r="M35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="N35">
@@ -2339,22 +2364,25 @@
         <v>0.02</v>
       </c>
       <c r="P35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="Q35">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E36">
         <v>1.2E-2</v>
@@ -2363,7 +2391,7 @@
         <v>0.02</v>
       </c>
       <c r="G36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.6E-2</v>
       </c>
       <c r="H36">
@@ -2373,7 +2401,7 @@
         <v>0.4</v>
       </c>
       <c r="J36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36</v>
       </c>
       <c r="K36">
@@ -2383,7 +2411,7 @@
         <v>0.64</v>
       </c>
       <c r="M36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N36">
@@ -2393,22 +2421,25 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="P36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>5.6000000000000001E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="Q36">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E37">
         <v>1.2E-2</v>
@@ -2417,7 +2448,7 @@
         <v>0.02</v>
       </c>
       <c r="G37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.6E-2</v>
       </c>
       <c r="H37">
@@ -2427,7 +2458,7 @@
         <v>0.4</v>
       </c>
       <c r="J37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36</v>
       </c>
       <c r="K37">
@@ -2437,8 +2468,7 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <f t="shared" si="4"/>
-        <v>0.82000000000000006</v>
+        <v>0.78</v>
       </c>
       <c r="N37">
         <v>4.3999999999999997E-2</v>
@@ -2447,22 +2477,25 @@
         <v>2.4E-2</v>
       </c>
       <c r="P37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="Q37">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E38">
         <v>1.2E-2</v>
@@ -2471,7 +2504,7 @@
         <v>0.02</v>
       </c>
       <c r="G38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.6E-2</v>
       </c>
       <c r="H38">
@@ -2481,8 +2514,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J38">
-        <f t="shared" si="1"/>
-        <v>0.47500000000000003</v>
+        <v>0.46</v>
       </c>
       <c r="K38">
         <v>0.1</v>
@@ -2491,8 +2523,7 @@
         <v>0.3</v>
       </c>
       <c r="M38">
-        <f t="shared" si="4"/>
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="N38">
         <v>5.8000000000000003E-2</v>
@@ -2501,22 +2532,25 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="P38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="Q38">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E39">
         <v>1.2E-2</v>
@@ -2525,7 +2559,7 @@
         <v>0.02</v>
       </c>
       <c r="G39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.6E-2</v>
       </c>
       <c r="H39">
@@ -2535,8 +2569,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J39">
-        <f t="shared" si="1"/>
-        <v>0.47500000000000003</v>
+        <v>0.46</v>
       </c>
       <c r="K39">
         <v>0.3</v>
@@ -2545,7 +2578,7 @@
         <v>0.5</v>
       </c>
       <c r="M39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="N39">
@@ -2555,22 +2588,25 @@
         <v>0.02</v>
       </c>
       <c r="P39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="Q39">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E40">
         <v>1.2E-2</v>
@@ -2579,7 +2615,7 @@
         <v>0.02</v>
       </c>
       <c r="G40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.6E-2</v>
       </c>
       <c r="H40">
@@ -2589,8 +2625,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J40">
-        <f t="shared" si="1"/>
-        <v>0.47500000000000003</v>
+        <v>0.46</v>
       </c>
       <c r="K40">
         <v>0.5</v>
@@ -2599,7 +2634,7 @@
         <v>0.64</v>
       </c>
       <c r="M40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N40">
@@ -2609,22 +2644,25 @@
         <v>2.7E-2</v>
       </c>
       <c r="P40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>5.3999999999999999E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="Q40">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E41">
         <v>1.2E-2</v>
@@ -2633,7 +2671,7 @@
         <v>0.02</v>
       </c>
       <c r="G41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.6E-2</v>
       </c>
       <c r="H41">
@@ -2643,8 +2681,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J41">
-        <f t="shared" si="1"/>
-        <v>0.47500000000000003</v>
+        <v>0.47</v>
       </c>
       <c r="K41">
         <v>0.64</v>
@@ -2653,8 +2690,7 @@
         <v>1</v>
       </c>
       <c r="M41">
-        <f t="shared" si="4"/>
-        <v>0.82000000000000006</v>
+        <v>0.79</v>
       </c>
       <c r="N41">
         <v>7.8E-2</v>
@@ -2663,22 +2699,25 @@
         <v>2.3E-2</v>
       </c>
       <c r="P41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="Q41">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D42" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E42">
         <v>1.2E-2</v>
@@ -2687,7 +2726,7 @@
         <v>0.02</v>
       </c>
       <c r="G42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.6E-2</v>
       </c>
       <c r="H42">
@@ -2697,8 +2736,7 @@
         <v>0.7</v>
       </c>
       <c r="J42">
-        <f t="shared" si="1"/>
-        <v>0.625</v>
+        <v>0.62</v>
       </c>
       <c r="K42">
         <v>0.1</v>
@@ -2707,8 +2745,7 @@
         <v>0.3</v>
       </c>
       <c r="M42">
-        <f t="shared" si="4"/>
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="N42">
         <v>0.13200000000000001</v>
@@ -2717,22 +2754,25 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="P42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="Q42">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E43">
         <v>1.2E-2</v>
@@ -2741,7 +2781,7 @@
         <v>0.02</v>
       </c>
       <c r="G43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.6E-2</v>
       </c>
       <c r="H43">
@@ -2751,8 +2791,7 @@
         <v>0.7</v>
       </c>
       <c r="J43">
-        <f t="shared" si="1"/>
-        <v>0.625</v>
+        <v>0.62</v>
       </c>
       <c r="K43">
         <v>0.3</v>
@@ -2761,7 +2800,6 @@
         <v>0.5</v>
       </c>
       <c r="M43">
-        <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
       <c r="N43">
@@ -2771,22 +2809,25 @@
         <v>0.03</v>
       </c>
       <c r="P43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-    </row>
-    <row r="44" spans="1:16">
+      <c r="Q43">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E44">
         <v>1.2E-2</v>
@@ -2795,7 +2836,7 @@
         <v>0.02</v>
       </c>
       <c r="G44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.6E-2</v>
       </c>
       <c r="H44">
@@ -2805,8 +2846,7 @@
         <v>0.7</v>
       </c>
       <c r="J44">
-        <f t="shared" si="1"/>
-        <v>0.625</v>
+        <v>0.61</v>
       </c>
       <c r="K44">
         <v>0.5</v>
@@ -2815,7 +2855,7 @@
         <v>0.64</v>
       </c>
       <c r="M44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N44">
@@ -2825,22 +2865,25 @@
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="P44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>8.5999999999999993E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:16">
+      <c r="Q44">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E45">
         <v>1.2E-2</v>
@@ -2849,7 +2892,7 @@
         <v>0.02</v>
       </c>
       <c r="G45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.6E-2</v>
       </c>
       <c r="H45">
@@ -2859,8 +2902,7 @@
         <v>0.7</v>
       </c>
       <c r="J45">
-        <f t="shared" si="1"/>
-        <v>0.625</v>
+        <v>0.62</v>
       </c>
       <c r="K45">
         <v>0.64</v>
@@ -2869,8 +2911,7 @@
         <v>1</v>
       </c>
       <c r="M45">
-        <f t="shared" si="4"/>
-        <v>0.82000000000000006</v>
+        <v>0.79</v>
       </c>
       <c r="N45">
         <v>5.1999999999999998E-2</v>
@@ -2879,22 +2920,25 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="P45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>6.8000000000000005E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:16">
+      <c r="Q45">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E46">
         <v>1.2E-2</v>
@@ -2903,7 +2947,7 @@
         <v>0.02</v>
       </c>
       <c r="G46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.6E-2</v>
       </c>
       <c r="H46">
@@ -2913,8 +2957,7 @@
         <v>0.85</v>
       </c>
       <c r="J46">
-        <f t="shared" si="1"/>
-        <v>0.77499999999999991</v>
+        <v>0.77</v>
       </c>
       <c r="K46">
         <v>0.1</v>
@@ -2923,8 +2966,7 @@
         <v>0.3</v>
       </c>
       <c r="M46">
-        <f t="shared" si="4"/>
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="N46">
         <v>0.14299999999999999</v>
@@ -2933,22 +2975,25 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="P46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.10199999999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:16">
+      <c r="Q46">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E47">
         <v>1.2E-2</v>
@@ -2957,7 +3002,7 @@
         <v>0.02</v>
       </c>
       <c r="G47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.6E-2</v>
       </c>
       <c r="H47">
@@ -2967,8 +3012,7 @@
         <v>0.85</v>
       </c>
       <c r="J47">
-        <f t="shared" si="1"/>
-        <v>0.77499999999999991</v>
+        <v>0.77</v>
       </c>
       <c r="K47">
         <v>0.3</v>
@@ -2977,8 +3021,7 @@
         <v>0.5</v>
       </c>
       <c r="M47">
-        <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="N47">
         <v>0.155</v>
@@ -2987,22 +3030,25 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="P47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.09</v>
       </c>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="Q47">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E48">
         <v>1.2E-2</v>
@@ -3011,7 +3057,7 @@
         <v>0.02</v>
       </c>
       <c r="G48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.6E-2</v>
       </c>
       <c r="H48">
@@ -3021,8 +3067,7 @@
         <v>0.85</v>
       </c>
       <c r="J48">
-        <f t="shared" si="1"/>
-        <v>0.77499999999999991</v>
+        <v>0.76</v>
       </c>
       <c r="K48">
         <v>0.5</v>
@@ -3031,8 +3076,7 @@
         <v>0.64</v>
       </c>
       <c r="M48">
-        <f t="shared" si="4"/>
-        <v>0.57000000000000006</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="N48">
         <v>-0.1</v>
@@ -3041,22 +3085,25 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="P48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.14199999999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="Q48">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D49" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E49">
         <v>1.2E-2</v>
@@ -3065,7 +3112,7 @@
         <v>0.02</v>
       </c>
       <c r="G49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.6E-2</v>
       </c>
       <c r="H49">
@@ -3075,8 +3122,7 @@
         <v>0.85</v>
       </c>
       <c r="J49">
-        <f t="shared" si="1"/>
-        <v>0.77499999999999991</v>
+        <v>0.76</v>
       </c>
       <c r="K49">
         <v>0.64</v>
@@ -3085,8 +3131,7 @@
         <v>1</v>
       </c>
       <c r="M49">
-        <f t="shared" si="4"/>
-        <v>0.82000000000000006</v>
+        <v>0.8</v>
       </c>
       <c r="N49">
         <v>0.02</v>
@@ -3095,22 +3140,25 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="P49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.108</v>
       </c>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="Q49">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E50">
         <v>0.02</v>
@@ -3119,8 +3167,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="G50">
-        <f t="shared" si="6"/>
-        <v>2.8999999999999998E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="H50">
         <v>0.2</v>
@@ -3129,8 +3176,7 @@
         <v>0.25</v>
       </c>
       <c r="J50">
-        <f t="shared" si="1"/>
-        <v>0.22500000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="K50">
         <v>0.1</v>
@@ -3139,8 +3185,7 @@
         <v>0.3</v>
       </c>
       <c r="M50">
-        <f t="shared" si="4"/>
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="N50">
         <v>-0.03</v>
@@ -3149,22 +3194,25 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="P50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="Q50">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D51" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E51">
         <v>0.02</v>
@@ -3173,8 +3221,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="G51">
-        <f t="shared" ref="G51:G74" si="7">(E51+F51)/2</f>
-        <v>2.8999999999999998E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="H51">
         <v>0.2</v>
@@ -3183,8 +3230,7 @@
         <v>0.25</v>
       </c>
       <c r="J51">
-        <f t="shared" si="1"/>
-        <v>0.22500000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="K51">
         <v>0.3</v>
@@ -3193,7 +3239,7 @@
         <v>0.5</v>
       </c>
       <c r="M51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="N51">
@@ -3203,22 +3249,25 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="P51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
-    </row>
-    <row r="52" spans="1:16">
+      <c r="Q51">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E52">
         <v>0.02</v>
@@ -3227,8 +3276,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="G52">
-        <f t="shared" si="7"/>
-        <v>2.8999999999999998E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="H52">
         <v>0.2</v>
@@ -3237,8 +3285,7 @@
         <v>0.25</v>
       </c>
       <c r="J52">
-        <f t="shared" si="1"/>
-        <v>0.22500000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="K52">
         <v>0.5</v>
@@ -3247,7 +3294,7 @@
         <v>0.64</v>
       </c>
       <c r="M52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N52">
@@ -3257,22 +3304,25 @@
         <v>2.3E-2</v>
       </c>
       <c r="P52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:16">
+      <c r="Q52">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D53" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E53">
         <v>0.02</v>
@@ -3281,8 +3331,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="G53">
-        <f t="shared" si="7"/>
-        <v>2.8999999999999998E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="H53">
         <v>0.2</v>
@@ -3291,8 +3340,7 @@
         <v>0.25</v>
       </c>
       <c r="J53">
-        <f t="shared" si="1"/>
-        <v>0.22500000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="K53">
         <v>0.64</v>
@@ -3301,8 +3349,7 @@
         <v>1</v>
       </c>
       <c r="M53">
-        <f t="shared" si="4"/>
-        <v>0.82000000000000006</v>
+        <v>0.77</v>
       </c>
       <c r="N53">
         <v>6.4000000000000001E-2</v>
@@ -3311,22 +3358,25 @@
         <v>2.3E-2</v>
       </c>
       <c r="P53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:16">
+      <c r="Q53">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E54">
         <v>0.02</v>
@@ -3335,8 +3385,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="G54">
-        <f t="shared" si="7"/>
-        <v>2.8999999999999998E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="H54">
         <v>0.25</v>
@@ -3345,8 +3394,7 @@
         <v>0.32</v>
       </c>
       <c r="J54">
-        <f t="shared" si="1"/>
-        <v>0.28500000000000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K54">
         <v>0.1</v>
@@ -3355,8 +3403,7 @@
         <v>0.3</v>
       </c>
       <c r="M54">
-        <f t="shared" si="4"/>
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="N54">
         <v>2.8000000000000001E-2</v>
@@ -3365,22 +3412,25 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="P54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:16">
+      <c r="Q54">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D55" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E55">
         <v>0.02</v>
@@ -3389,8 +3439,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="G55">
-        <f t="shared" si="7"/>
-        <v>2.8999999999999998E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="H55">
         <v>0.25</v>
@@ -3399,8 +3448,7 @@
         <v>0.32</v>
       </c>
       <c r="J55">
-        <f t="shared" si="1"/>
-        <v>0.28500000000000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K55">
         <v>0.3</v>
@@ -3409,7 +3457,7 @@
         <v>0.5</v>
       </c>
       <c r="M55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="N55">
@@ -3419,22 +3467,25 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="P55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3.4000000000000002E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:16">
+      <c r="Q55">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D56" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E56">
         <v>0.02</v>
@@ -3443,8 +3494,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="G56">
-        <f t="shared" si="7"/>
-        <v>2.8999999999999998E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="H56">
         <v>0.25</v>
@@ -3453,8 +3503,7 @@
         <v>0.32</v>
       </c>
       <c r="J56">
-        <f t="shared" si="1"/>
-        <v>0.28500000000000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K56">
         <v>0.5</v>
@@ -3463,7 +3512,7 @@
         <v>0.64</v>
       </c>
       <c r="M56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N56">
@@ -3473,22 +3522,25 @@
         <v>2.4E-2</v>
       </c>
       <c r="P56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:16">
+      <c r="Q56">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D57" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E57">
         <v>0.02</v>
@@ -3497,8 +3549,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="G57">
-        <f t="shared" si="7"/>
-        <v>2.8999999999999998E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="H57">
         <v>0.25</v>
@@ -3507,8 +3558,7 @@
         <v>0.32</v>
       </c>
       <c r="J57">
-        <f t="shared" si="1"/>
-        <v>0.28500000000000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K57">
         <v>0.64</v>
@@ -3517,8 +3567,7 @@
         <v>1</v>
       </c>
       <c r="M57">
-        <f t="shared" si="4"/>
-        <v>0.82000000000000006</v>
+        <v>0.78</v>
       </c>
       <c r="N57">
         <v>5.1999999999999998E-2</v>
@@ -3527,22 +3576,25 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="P57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4.3999999999999997E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:16">
+      <c r="Q57">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D58" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E58">
         <v>0.02</v>
@@ -3551,8 +3603,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="G58">
-        <f t="shared" si="7"/>
-        <v>2.8999999999999998E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="H58">
         <v>0.32</v>
@@ -3561,7 +3612,7 @@
         <v>0.4</v>
       </c>
       <c r="J58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36</v>
       </c>
       <c r="K58">
@@ -3571,8 +3622,7 @@
         <v>0.3</v>
       </c>
       <c r="M58">
-        <f t="shared" si="4"/>
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="N58">
         <v>9.0999999999999998E-2</v>
@@ -3581,22 +3631,25 @@
         <v>2.3E-2</v>
       </c>
       <c r="P58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:16">
+      <c r="Q58">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D59" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E59">
         <v>0.02</v>
@@ -3605,8 +3658,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="G59">
-        <f t="shared" si="7"/>
-        <v>2.8999999999999998E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="H59">
         <v>0.32</v>
@@ -3615,7 +3667,7 @@
         <v>0.4</v>
       </c>
       <c r="J59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36</v>
       </c>
       <c r="K59">
@@ -3625,7 +3677,7 @@
         <v>0.5</v>
       </c>
       <c r="M59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="N59">
@@ -3635,22 +3687,25 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="P59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4.2000000000000003E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:16">
+      <c r="Q59">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D60" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E60">
         <v>0.02</v>
@@ -3659,8 +3714,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="G60">
-        <f t="shared" si="7"/>
-        <v>2.8999999999999998E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="H60">
         <v>0.32</v>
@@ -3669,7 +3723,7 @@
         <v>0.4</v>
       </c>
       <c r="J60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36</v>
       </c>
       <c r="K60">
@@ -3679,7 +3733,7 @@
         <v>0.64</v>
       </c>
       <c r="M60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N60">
@@ -3689,22 +3743,25 @@
         <v>2.7E-2</v>
       </c>
       <c r="P60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>5.3999999999999999E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:16">
+      <c r="Q60">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E61">
         <v>0.02</v>
@@ -3713,8 +3770,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="G61">
-        <f t="shared" si="7"/>
-        <v>2.8999999999999998E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="H61">
         <v>0.32</v>
@@ -3723,7 +3779,7 @@
         <v>0.4</v>
       </c>
       <c r="J61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36</v>
       </c>
       <c r="K61">
@@ -3733,8 +3789,7 @@
         <v>1</v>
       </c>
       <c r="M61">
-        <f t="shared" si="4"/>
-        <v>0.82000000000000006</v>
+        <v>0.78</v>
       </c>
       <c r="N61">
         <v>7.4999999999999997E-2</v>
@@ -3743,22 +3798,25 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="P61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-    </row>
-    <row r="62" spans="1:16">
+      <c r="Q61">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D62" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E62">
         <v>0.02</v>
@@ -3767,8 +3825,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="G62">
-        <f t="shared" si="7"/>
-        <v>2.8999999999999998E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="H62">
         <v>0.4</v>
@@ -3777,8 +3834,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J62">
-        <f t="shared" si="1"/>
-        <v>0.47500000000000003</v>
+        <v>0.46</v>
       </c>
       <c r="K62">
         <v>0.1</v>
@@ -3787,8 +3843,7 @@
         <v>0.3</v>
       </c>
       <c r="M62">
-        <f t="shared" si="4"/>
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="N62">
         <v>6.6000000000000003E-2</v>
@@ -3797,22 +3852,25 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="P62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-    </row>
-    <row r="63" spans="1:16">
+      <c r="Q62">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C63" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D63" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E63">
         <v>0.02</v>
@@ -3821,8 +3879,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="G63">
-        <f t="shared" si="7"/>
-        <v>2.8999999999999998E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="H63">
         <v>0.4</v>
@@ -3831,8 +3888,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J63">
-        <f t="shared" si="1"/>
-        <v>0.47500000000000003</v>
+        <v>0.46</v>
       </c>
       <c r="K63">
         <v>0.3</v>
@@ -3841,7 +3897,7 @@
         <v>0.5</v>
       </c>
       <c r="M63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="N63">
@@ -3851,22 +3907,25 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="P63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4.3999999999999997E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:16">
+      <c r="Q63">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C64" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D64" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E64">
         <v>0.02</v>
@@ -3875,8 +3934,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="G64">
-        <f t="shared" si="7"/>
-        <v>2.8999999999999998E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="H64">
         <v>0.4</v>
@@ -3885,8 +3943,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J64">
-        <f t="shared" si="1"/>
-        <v>0.47500000000000003</v>
+        <v>0.46</v>
       </c>
       <c r="K64">
         <v>0.5</v>
@@ -3895,7 +3952,7 @@
         <v>0.64</v>
       </c>
       <c r="M64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N64">
@@ -3905,22 +3962,25 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="P64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>5.6000000000000001E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:16">
+      <c r="Q64">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C65" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D65" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E65">
         <v>0.02</v>
@@ -3929,8 +3989,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="G65">
-        <f t="shared" si="7"/>
-        <v>2.8999999999999998E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="H65">
         <v>0.4</v>
@@ -3939,8 +3998,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J65">
-        <f t="shared" si="1"/>
-        <v>0.47500000000000003</v>
+        <v>0.47</v>
       </c>
       <c r="K65">
         <v>0.64</v>
@@ -3949,8 +4007,7 @@
         <v>1</v>
       </c>
       <c r="M65">
-        <f t="shared" si="4"/>
-        <v>0.82000000000000006</v>
+        <v>0.79</v>
       </c>
       <c r="N65">
         <v>0.02</v>
@@ -3959,22 +4016,25 @@
         <v>2.3E-2</v>
       </c>
       <c r="P65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:16">
+      <c r="Q65">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C66" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D66" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E66">
         <v>0.02</v>
@@ -3983,8 +4043,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="G66">
-        <f t="shared" si="7"/>
-        <v>2.8999999999999998E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="H66">
         <v>0.55000000000000004</v>
@@ -3993,8 +4052,7 @@
         <v>0.7</v>
       </c>
       <c r="J66">
-        <f t="shared" si="1"/>
-        <v>0.625</v>
+        <v>0.61</v>
       </c>
       <c r="K66">
         <v>0.1</v>
@@ -4003,8 +4061,7 @@
         <v>0.3</v>
       </c>
       <c r="M66">
-        <f t="shared" si="4"/>
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="N66">
         <v>9.2999999999999999E-2</v>
@@ -4013,22 +4070,25 @@
         <v>0.04</v>
       </c>
       <c r="P66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
-    </row>
-    <row r="67" spans="1:16">
+      <c r="Q66">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C67" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D67" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E67">
         <v>0.02</v>
@@ -4037,8 +4097,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="G67">
-        <f t="shared" si="7"/>
-        <v>2.8999999999999998E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="H67">
         <v>0.55000000000000004</v>
@@ -4047,8 +4106,7 @@
         <v>0.7</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J97" si="8">(H67+I67)/2</f>
-        <v>0.625</v>
+        <v>0.61</v>
       </c>
       <c r="K67">
         <v>0.3</v>
@@ -4057,7 +4115,7 @@
         <v>0.5</v>
       </c>
       <c r="M67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="N67">
@@ -4067,22 +4125,25 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="P67">
-        <f t="shared" ref="P67:P97" si="9">2*O67</f>
+        <f t="shared" ref="P67:P97" si="5">2*O67</f>
         <v>6.4000000000000001E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:16">
+      <c r="Q67">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C68" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D68" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E68">
         <v>0.02</v>
@@ -4091,8 +4152,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="G68">
-        <f t="shared" si="7"/>
-        <v>2.8999999999999998E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="H68">
         <v>0.55000000000000004</v>
@@ -4101,8 +4161,7 @@
         <v>0.7</v>
       </c>
       <c r="J68">
-        <f t="shared" si="8"/>
-        <v>0.625</v>
+        <v>0.61</v>
       </c>
       <c r="K68">
         <v>0.5</v>
@@ -4111,7 +4170,7 @@
         <v>0.64</v>
       </c>
       <c r="M68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N68">
@@ -4121,22 +4180,25 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="P68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>8.7999999999999995E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:16">
+      <c r="Q68">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C69" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D69" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E69">
         <v>0.02</v>
@@ -4145,8 +4207,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="G69">
-        <f t="shared" si="7"/>
-        <v>2.8999999999999998E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="H69">
         <v>0.55000000000000004</v>
@@ -4155,8 +4216,7 @@
         <v>0.7</v>
       </c>
       <c r="J69">
-        <f t="shared" si="8"/>
-        <v>0.625</v>
+        <v>0.62</v>
       </c>
       <c r="K69">
         <v>0.64</v>
@@ -4165,8 +4225,7 @@
         <v>1</v>
       </c>
       <c r="M69">
-        <f t="shared" si="4"/>
-        <v>0.82000000000000006</v>
+        <v>0.79</v>
       </c>
       <c r="N69">
         <v>1.7000000000000001E-2</v>
@@ -4175,22 +4234,25 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="P69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>7.5999999999999998E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:16">
+      <c r="Q69">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C70" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D70" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E70">
         <v>0.02</v>
@@ -4199,8 +4261,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="G70">
-        <f t="shared" si="7"/>
-        <v>2.8999999999999998E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="H70">
         <v>0.7</v>
@@ -4209,8 +4270,7 @@
         <v>0.85</v>
       </c>
       <c r="J70">
-        <f t="shared" si="8"/>
-        <v>0.77499999999999991</v>
+        <v>0.77</v>
       </c>
       <c r="K70">
         <v>0.1</v>
@@ -4219,8 +4279,7 @@
         <v>0.3</v>
       </c>
       <c r="M70">
-        <f t="shared" ref="M70:M97" si="10">(K70+L70)/2</f>
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="N70">
         <v>7.0000000000000007E-2</v>
@@ -4229,22 +4288,25 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="P70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0.108</v>
       </c>
-    </row>
-    <row r="71" spans="1:16">
+      <c r="Q70">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C71" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D71" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E71">
         <v>0.02</v>
@@ -4253,8 +4315,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="G71">
-        <f t="shared" si="7"/>
-        <v>2.8999999999999998E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="H71">
         <v>0.7</v>
@@ -4263,8 +4324,7 @@
         <v>0.85</v>
       </c>
       <c r="J71">
-        <f t="shared" si="8"/>
-        <v>0.77499999999999991</v>
+        <v>0.77</v>
       </c>
       <c r="K71">
         <v>0.3</v>
@@ -4273,7 +4333,7 @@
         <v>0.5</v>
       </c>
       <c r="M71">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="M71:M97" si="6">(K71+L71)/2</f>
         <v>0.4</v>
       </c>
       <c r="N71">
@@ -4283,22 +4343,25 @@
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="P71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0.106</v>
       </c>
-    </row>
-    <row r="72" spans="1:16">
+      <c r="Q71">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C72" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D72" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E72">
         <v>0.02</v>
@@ -4307,8 +4370,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="G72">
-        <f t="shared" si="7"/>
-        <v>2.8999999999999998E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="H72">
         <v>0.7</v>
@@ -4317,8 +4379,7 @@
         <v>0.85</v>
       </c>
       <c r="J72">
-        <f t="shared" si="8"/>
-        <v>0.77499999999999991</v>
+        <v>0.77</v>
       </c>
       <c r="K72">
         <v>0.5</v>
@@ -4327,8 +4388,7 @@
         <v>0.64</v>
       </c>
       <c r="M72">
-        <f t="shared" si="10"/>
-        <v>0.57000000000000006</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="N72">
         <v>3.0000000000000001E-3</v>
@@ -4337,22 +4397,25 @@
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="P72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="73" spans="1:16">
+      <c r="Q72">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C73" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D73" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E73">
         <v>0.02</v>
@@ -4361,8 +4424,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="G73">
-        <f t="shared" si="7"/>
-        <v>2.8999999999999998E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="H73">
         <v>0.7</v>
@@ -4371,8 +4433,7 @@
         <v>0.85</v>
       </c>
       <c r="J73">
-        <f t="shared" si="8"/>
-        <v>0.77499999999999991</v>
+        <v>0.77</v>
       </c>
       <c r="K73">
         <v>0.64</v>
@@ -4381,8 +4442,7 @@
         <v>1</v>
       </c>
       <c r="M73">
-        <f t="shared" si="10"/>
-        <v>0.82000000000000006</v>
+        <v>0.8</v>
       </c>
       <c r="N73">
         <v>-0.12</v>
@@ -4391,22 +4451,25 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="P73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0.114</v>
       </c>
-    </row>
-    <row r="74" spans="1:16">
+      <c r="Q73">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C74" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D74" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E74">
         <v>3.7999999999999999E-2</v>
@@ -4415,8 +4478,7 @@
         <v>0.13</v>
       </c>
       <c r="G74">
-        <f t="shared" si="7"/>
-        <v>8.4000000000000005E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="H74">
         <v>0.2</v>
@@ -4425,8 +4487,7 @@
         <v>0.25</v>
       </c>
       <c r="J74">
-        <f t="shared" si="8"/>
-        <v>0.22500000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="K74">
         <v>0.1</v>
@@ -4435,8 +4496,7 @@
         <v>0.3</v>
       </c>
       <c r="M74">
-        <f t="shared" si="10"/>
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="N74">
         <v>1E-3</v>
@@ -4445,22 +4505,25 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="P74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>3.5999999999999997E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:16">
+      <c r="Q74">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
       <c r="A75" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C75" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D75" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E75">
         <v>3.7999999999999999E-2</v>
@@ -4469,8 +4532,7 @@
         <v>0.13</v>
       </c>
       <c r="G75">
-        <f t="shared" ref="G75:G97" si="11">(E75+F75)/2</f>
-        <v>8.4000000000000005E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="H75">
         <v>0.2</v>
@@ -4479,8 +4541,7 @@
         <v>0.25</v>
       </c>
       <c r="J75">
-        <f t="shared" si="8"/>
-        <v>0.22500000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="K75">
         <v>0.3</v>
@@ -4489,7 +4550,7 @@
         <v>0.5</v>
       </c>
       <c r="M75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
       <c r="N75">
@@ -4499,22 +4560,25 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="P75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>3.5999999999999997E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:16">
+      <c r="Q75">
+        <v>6.87</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
       <c r="A76" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C76" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D76" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E76">
         <v>3.7999999999999999E-2</v>
@@ -4523,8 +4587,7 @@
         <v>0.13</v>
       </c>
       <c r="G76">
-        <f t="shared" si="11"/>
-        <v>8.4000000000000005E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="H76">
         <v>0.2</v>
@@ -4533,8 +4596,7 @@
         <v>0.25</v>
       </c>
       <c r="J76">
-        <f t="shared" si="8"/>
-        <v>0.22500000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="K76">
         <v>0.5</v>
@@ -4543,8 +4605,7 @@
         <v>0.64</v>
       </c>
       <c r="M76">
-        <f t="shared" si="10"/>
-        <v>0.57000000000000006</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="N76">
         <v>2.5999999999999999E-2</v>
@@ -4553,22 +4614,25 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="P76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>5.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:16">
+      <c r="Q76">
+        <v>7.08</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
       <c r="A77" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C77" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D77" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E77">
         <v>3.7999999999999999E-2</v>
@@ -4577,8 +4641,7 @@
         <v>0.13</v>
       </c>
       <c r="G77">
-        <f t="shared" si="11"/>
-        <v>8.4000000000000005E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="H77">
         <v>0.2</v>
@@ -4587,8 +4650,7 @@
         <v>0.25</v>
       </c>
       <c r="J77">
-        <f t="shared" si="8"/>
-        <v>0.22500000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="K77">
         <v>0.64</v>
@@ -4597,8 +4659,7 @@
         <v>1</v>
       </c>
       <c r="M77">
-        <f t="shared" si="10"/>
-        <v>0.82000000000000006</v>
+        <v>0.77</v>
       </c>
       <c r="N77">
         <v>4.1000000000000002E-2</v>
@@ -4607,22 +4668,25 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="P77">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>5.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:16">
+      <c r="Q77">
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
       <c r="A78" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C78" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D78" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E78">
         <v>3.7999999999999999E-2</v>
@@ -4631,8 +4695,7 @@
         <v>0.13</v>
       </c>
       <c r="G78">
-        <f t="shared" si="11"/>
-        <v>8.4000000000000005E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="H78">
         <v>0.25</v>
@@ -4641,8 +4704,7 @@
         <v>0.32</v>
       </c>
       <c r="J78">
-        <f t="shared" si="8"/>
-        <v>0.28500000000000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K78">
         <v>0.1</v>
@@ -4651,8 +4713,7 @@
         <v>0.3</v>
       </c>
       <c r="M78">
-        <f t="shared" si="10"/>
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="N78">
         <v>-4.0000000000000001E-3</v>
@@ -4661,22 +4722,25 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="P78">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>4.2000000000000003E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:16">
+      <c r="Q78">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C79" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D79" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E79">
         <v>3.7999999999999999E-2</v>
@@ -4685,8 +4749,7 @@
         <v>0.13</v>
       </c>
       <c r="G79">
-        <f t="shared" si="11"/>
-        <v>8.4000000000000005E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="H79">
         <v>0.25</v>
@@ -4695,8 +4758,7 @@
         <v>0.32</v>
       </c>
       <c r="J79">
-        <f t="shared" si="8"/>
-        <v>0.28500000000000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K79">
         <v>0.3</v>
@@ -4705,7 +4767,7 @@
         <v>0.5</v>
       </c>
       <c r="M79">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
       <c r="N79">
@@ -4715,22 +4777,25 @@
         <v>1.9E-2</v>
       </c>
       <c r="P79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>3.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:16">
+      <c r="Q79">
+        <v>6.84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
       <c r="A80" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C80" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D80" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E80">
         <v>3.7999999999999999E-2</v>
@@ -4739,8 +4804,7 @@
         <v>0.13</v>
       </c>
       <c r="G80">
-        <f t="shared" si="11"/>
-        <v>8.4000000000000005E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="H80">
         <v>0.25</v>
@@ -4749,8 +4813,7 @@
         <v>0.32</v>
       </c>
       <c r="J80">
-        <f t="shared" si="8"/>
-        <v>0.28500000000000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K80">
         <v>0.5</v>
@@ -4759,7 +4822,7 @@
         <v>0.64</v>
       </c>
       <c r="M80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N80">
@@ -4769,22 +4832,25 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="P80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>5.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:16">
+      <c r="Q80">
+        <v>6.98</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
       <c r="A81" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C81" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D81" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E81">
         <v>3.7999999999999999E-2</v>
@@ -4793,8 +4859,7 @@
         <v>0.13</v>
       </c>
       <c r="G81">
-        <f t="shared" si="11"/>
-        <v>8.4000000000000005E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="H81">
         <v>0.25</v>
@@ -4803,8 +4868,7 @@
         <v>0.32</v>
       </c>
       <c r="J81">
-        <f t="shared" si="8"/>
-        <v>0.28500000000000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K81">
         <v>0.64</v>
@@ -4813,8 +4877,7 @@
         <v>1</v>
       </c>
       <c r="M81">
-        <f t="shared" si="10"/>
-        <v>0.82000000000000006</v>
+        <v>0.77</v>
       </c>
       <c r="N81">
         <v>8.5000000000000006E-2</v>
@@ -4823,22 +4886,25 @@
         <v>2.4E-2</v>
       </c>
       <c r="P81">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>4.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:16">
+      <c r="Q81">
+        <v>7.33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
       <c r="A82" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C82" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D82" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E82">
         <v>3.7999999999999999E-2</v>
@@ -4847,8 +4913,7 @@
         <v>0.13</v>
       </c>
       <c r="G82">
-        <f t="shared" si="11"/>
-        <v>8.4000000000000005E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="H82">
         <v>0.32</v>
@@ -4857,7 +4922,7 @@
         <v>0.4</v>
       </c>
       <c r="J82">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="J67:J97" si="7">(H82+I82)/2</f>
         <v>0.36</v>
       </c>
       <c r="K82">
@@ -4867,8 +4932,7 @@
         <v>0.3</v>
       </c>
       <c r="M82">
-        <f t="shared" si="10"/>
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="N82">
         <v>3.0000000000000001E-3</v>
@@ -4877,22 +4941,25 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="P82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>5.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:16">
+      <c r="Q82">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
       <c r="A83" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C83" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D83" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E83">
         <v>3.7999999999999999E-2</v>
@@ -4901,8 +4968,7 @@
         <v>0.13</v>
       </c>
       <c r="G83">
-        <f t="shared" si="11"/>
-        <v>8.4000000000000005E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="H83">
         <v>0.32</v>
@@ -4911,7 +4977,7 @@
         <v>0.4</v>
       </c>
       <c r="J83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.36</v>
       </c>
       <c r="K83">
@@ -4921,7 +4987,7 @@
         <v>0.5</v>
       </c>
       <c r="M83">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
       <c r="N83">
@@ -4931,22 +4997,25 @@
         <v>2.3E-2</v>
       </c>
       <c r="P83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>4.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:16">
+      <c r="Q83">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
       <c r="A84" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C84" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D84" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E84">
         <v>3.7999999999999999E-2</v>
@@ -4955,8 +5024,7 @@
         <v>0.13</v>
       </c>
       <c r="G84">
-        <f t="shared" si="11"/>
-        <v>8.4000000000000005E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="H84">
         <v>0.32</v>
@@ -4965,7 +5033,7 @@
         <v>0.4</v>
       </c>
       <c r="J84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.36</v>
       </c>
       <c r="K84">
@@ -4975,7 +5043,7 @@
         <v>0.64</v>
       </c>
       <c r="M84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N84">
@@ -4985,22 +5053,25 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="P84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>5.8000000000000003E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:16">
+      <c r="Q84">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
       <c r="A85" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C85" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D85" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E85">
         <v>3.7999999999999999E-2</v>
@@ -5009,8 +5080,7 @@
         <v>0.13</v>
       </c>
       <c r="G85">
-        <f t="shared" si="11"/>
-        <v>8.4000000000000005E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="H85">
         <v>0.32</v>
@@ -5019,7 +5089,7 @@
         <v>0.4</v>
       </c>
       <c r="J85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.36</v>
       </c>
       <c r="K85">
@@ -5029,8 +5099,7 @@
         <v>1</v>
       </c>
       <c r="M85">
-        <f t="shared" si="10"/>
-        <v>0.82000000000000006</v>
+        <v>0.78</v>
       </c>
       <c r="N85">
         <v>3.5999999999999997E-2</v>
@@ -5039,22 +5108,25 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="P85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>5.6000000000000001E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:16">
+      <c r="Q85">
+        <v>7.19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
       <c r="A86" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C86" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D86" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E86">
         <v>3.7999999999999999E-2</v>
@@ -5063,8 +5135,7 @@
         <v>0.13</v>
       </c>
       <c r="G86">
-        <f t="shared" si="11"/>
-        <v>8.4000000000000005E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="H86">
         <v>0.4</v>
@@ -5073,8 +5144,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J86">
-        <f t="shared" si="8"/>
-        <v>0.47500000000000003</v>
+        <v>0.46</v>
       </c>
       <c r="K86">
         <v>0.1</v>
@@ -5083,8 +5153,7 @@
         <v>0.3</v>
       </c>
       <c r="M86">
-        <f t="shared" si="10"/>
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="N86">
         <v>2.9000000000000001E-2</v>
@@ -5093,22 +5162,25 @@
         <v>0.03</v>
       </c>
       <c r="P86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0.06</v>
       </c>
-    </row>
-    <row r="87" spans="1:16">
+      <c r="Q86">
+        <v>6.61</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
       <c r="A87" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C87" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D87" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E87">
         <v>3.7999999999999999E-2</v>
@@ -5117,8 +5189,7 @@
         <v>0.13</v>
       </c>
       <c r="G87">
-        <f t="shared" si="11"/>
-        <v>8.4000000000000005E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="H87">
         <v>0.4</v>
@@ -5127,8 +5198,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J87">
-        <f t="shared" si="8"/>
-        <v>0.47500000000000003</v>
+        <v>0.46</v>
       </c>
       <c r="K87">
         <v>0.3</v>
@@ -5137,7 +5207,7 @@
         <v>0.5</v>
       </c>
       <c r="M87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
       <c r="N87">
@@ -5147,22 +5217,25 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="P87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
-    </row>
-    <row r="88" spans="1:16">
+      <c r="Q87">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
       <c r="A88" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C88" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D88" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E88">
         <v>3.7999999999999999E-2</v>
@@ -5171,8 +5244,7 @@
         <v>0.13</v>
       </c>
       <c r="G88">
-        <f t="shared" si="11"/>
-        <v>8.4000000000000005E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="H88">
         <v>0.4</v>
@@ -5181,8 +5253,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J88">
-        <f t="shared" si="8"/>
-        <v>0.47500000000000003</v>
+        <v>0.46</v>
       </c>
       <c r="K88">
         <v>0.5</v>
@@ -5191,7 +5262,7 @@
         <v>0.64</v>
       </c>
       <c r="M88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N88">
@@ -5201,22 +5272,25 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="P88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>6.6000000000000003E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:16">
+      <c r="Q88">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
       <c r="A89" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C89" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D89" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E89">
         <v>3.7999999999999999E-2</v>
@@ -5225,8 +5299,7 @@
         <v>0.13</v>
       </c>
       <c r="G89">
-        <f t="shared" si="11"/>
-        <v>8.4000000000000005E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="H89">
         <v>0.4</v>
@@ -5235,8 +5308,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J89">
-        <f t="shared" si="8"/>
-        <v>0.47500000000000003</v>
+        <v>0.47</v>
       </c>
       <c r="K89">
         <v>0.64</v>
@@ -5245,8 +5317,7 @@
         <v>1</v>
       </c>
       <c r="M89">
-        <f t="shared" si="10"/>
-        <v>0.82000000000000006</v>
+        <v>0.79</v>
       </c>
       <c r="N89">
         <v>9.0999999999999998E-2</v>
@@ -5255,22 +5326,25 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="P89">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>5.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:16">
+      <c r="Q89">
+        <v>7.03</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17">
       <c r="A90" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C90" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D90" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E90">
         <v>3.7999999999999999E-2</v>
@@ -5279,8 +5353,7 @@
         <v>0.13</v>
       </c>
       <c r="G90">
-        <f t="shared" si="11"/>
-        <v>8.4000000000000005E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="H90">
         <v>0.55000000000000004</v>
@@ -5289,8 +5362,7 @@
         <v>0.7</v>
       </c>
       <c r="J90">
-        <f t="shared" si="8"/>
-        <v>0.625</v>
+        <v>0.61</v>
       </c>
       <c r="K90">
         <v>0.1</v>
@@ -5299,8 +5371,7 @@
         <v>0.3</v>
       </c>
       <c r="M90">
-        <f t="shared" si="10"/>
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="N90">
         <v>-2E-3</v>
@@ -5309,22 +5380,25 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="P90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>9.6000000000000002E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:16">
+      <c r="Q90">
+        <v>6.38</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
       <c r="A91" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C91" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D91" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E91">
         <v>3.7999999999999999E-2</v>
@@ -5333,8 +5407,7 @@
         <v>0.13</v>
       </c>
       <c r="G91">
-        <f t="shared" si="11"/>
-        <v>8.4000000000000005E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="H91">
         <v>0.55000000000000004</v>
@@ -5343,8 +5416,7 @@
         <v>0.7</v>
       </c>
       <c r="J91">
-        <f t="shared" si="8"/>
-        <v>0.625</v>
+        <v>0.61</v>
       </c>
       <c r="K91">
         <v>0.3</v>
@@ -5353,7 +5425,7 @@
         <v>0.5</v>
       </c>
       <c r="M91">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
       <c r="N91">
@@ -5363,22 +5435,25 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="P91">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>8.2000000000000003E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:16">
+      <c r="Q91">
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17">
       <c r="A92" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C92" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D92" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E92">
         <v>3.7999999999999999E-2</v>
@@ -5387,8 +5462,7 @@
         <v>0.13</v>
       </c>
       <c r="G92">
-        <f t="shared" si="11"/>
-        <v>8.4000000000000005E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="H92">
         <v>0.55000000000000004</v>
@@ -5397,8 +5471,7 @@
         <v>0.7</v>
       </c>
       <c r="J92">
-        <f t="shared" si="8"/>
-        <v>0.625</v>
+        <v>0.61</v>
       </c>
       <c r="K92">
         <v>0.5</v>
@@ -5407,7 +5480,7 @@
         <v>0.64</v>
       </c>
       <c r="M92">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N92">
@@ -5417,22 +5490,25 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="P92">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0.10199999999999999</v>
       </c>
-    </row>
-    <row r="93" spans="1:16">
+      <c r="Q92">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17">
       <c r="A93" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C93" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D93" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E93">
         <v>3.7999999999999999E-2</v>
@@ -5441,8 +5517,7 @@
         <v>0.13</v>
       </c>
       <c r="G93">
-        <f t="shared" si="11"/>
-        <v>8.4000000000000005E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="H93">
         <v>0.55000000000000004</v>
@@ -5451,8 +5526,7 @@
         <v>0.7</v>
       </c>
       <c r="J93">
-        <f t="shared" si="8"/>
-        <v>0.625</v>
+        <v>0.62</v>
       </c>
       <c r="K93">
         <v>0.64</v>
@@ -5461,8 +5535,7 @@
         <v>1</v>
       </c>
       <c r="M93">
-        <f t="shared" si="10"/>
-        <v>0.82000000000000006</v>
+        <v>0.8</v>
       </c>
       <c r="N93">
         <v>2.7E-2</v>
@@ -5471,22 +5544,25 @@
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="P93">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>8.5999999999999993E-2</v>
       </c>
-    </row>
-    <row r="94" spans="1:16">
+      <c r="Q93">
+        <v>6.94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
       <c r="A94" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C94" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D94" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E94">
         <v>3.7999999999999999E-2</v>
@@ -5495,8 +5571,7 @@
         <v>0.13</v>
       </c>
       <c r="G94">
-        <f t="shared" si="11"/>
-        <v>8.4000000000000005E-2</v>
+        <v>0.06</v>
       </c>
       <c r="H94">
         <v>0.7</v>
@@ -5505,8 +5580,7 @@
         <v>0.85</v>
       </c>
       <c r="J94">
-        <f t="shared" si="8"/>
-        <v>0.77499999999999991</v>
+        <v>0.77</v>
       </c>
       <c r="K94">
         <v>0.1</v>
@@ -5515,8 +5589,7 @@
         <v>0.3</v>
       </c>
       <c r="M94">
-        <f t="shared" si="10"/>
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="N94">
         <v>-7.3999999999999996E-2</v>
@@ -5525,22 +5598,25 @@
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="P94">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0.16200000000000001</v>
       </c>
-    </row>
-    <row r="95" spans="1:16">
+      <c r="Q94">
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
       <c r="A95" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C95" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D95" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E95">
         <v>3.7999999999999999E-2</v>
@@ -5549,8 +5625,7 @@
         <v>0.13</v>
       </c>
       <c r="G95">
-        <f t="shared" si="11"/>
-        <v>8.4000000000000005E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="H95">
         <v>0.7</v>
@@ -5559,8 +5634,7 @@
         <v>0.85</v>
       </c>
       <c r="J95">
-        <f t="shared" si="8"/>
-        <v>0.77499999999999991</v>
+        <v>0.76</v>
       </c>
       <c r="K95">
         <v>0.3</v>
@@ -5569,7 +5643,7 @@
         <v>0.5</v>
       </c>
       <c r="M95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
       <c r="N95">
@@ -5579,22 +5653,25 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="P95">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0.13</v>
       </c>
-    </row>
-    <row r="96" spans="1:16">
+      <c r="Q95">
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
       <c r="A96" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C96" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D96" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E96">
         <v>3.7999999999999999E-2</v>
@@ -5603,8 +5680,7 @@
         <v>0.13</v>
       </c>
       <c r="G96">
-        <f t="shared" si="11"/>
-        <v>8.4000000000000005E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="H96">
         <v>0.7</v>
@@ -5613,8 +5689,7 @@
         <v>0.85</v>
       </c>
       <c r="J96">
-        <f t="shared" si="8"/>
-        <v>0.77499999999999991</v>
+        <v>0.76</v>
       </c>
       <c r="K96">
         <v>0.5</v>
@@ -5623,7 +5698,7 @@
         <v>0.64</v>
       </c>
       <c r="M96">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N96">
@@ -5633,22 +5708,25 @@
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="P96">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="97" spans="1:16">
+      <c r="Q96">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
       <c r="A97" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C97" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D97" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E97">
         <v>3.7999999999999999E-2</v>
@@ -5657,8 +5735,7 @@
         <v>0.13</v>
       </c>
       <c r="G97">
-        <f t="shared" si="11"/>
-        <v>8.4000000000000005E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="H97">
         <v>0.7</v>
@@ -5667,8 +5744,7 @@
         <v>0.85</v>
       </c>
       <c r="J97">
-        <f t="shared" si="8"/>
-        <v>0.77499999999999991</v>
+        <v>0.76</v>
       </c>
       <c r="K97">
         <v>0.64</v>
@@ -5677,8 +5753,7 @@
         <v>1</v>
       </c>
       <c r="M97">
-        <f t="shared" si="10"/>
-        <v>0.82000000000000006</v>
+        <v>0.8</v>
       </c>
       <c r="N97">
         <v>-6.2E-2</v>
@@ -5687,44 +5762,47 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="P97">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0.13</v>
       </c>
-    </row>
-    <row r="98" spans="1:16">
+      <c r="Q97">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
       <c r="B98" s="1"/>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:17">
       <c r="B99" s="1"/>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:17">
       <c r="B100" s="1"/>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:17">
       <c r="B101" s="1"/>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:17">
       <c r="B102" s="1"/>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:17">
       <c r="B103" s="1"/>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:17">
       <c r="B104" s="1"/>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:17">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:17">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:17">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:17">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:17">
       <c r="B109" s="1"/>
     </row>
   </sheetData>

--- a/database/sidis/expdata/5041.xlsx
+++ b/database/sidis/expdata/5041.xlsx
@@ -1,32 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23120"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_160c\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fafd12/GIT/jam3d/database/sidis/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="609" documentId="13_ncr:1_{D21D06C4-579E-7B49-80A9-91E5A78FC89C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0CE64CEF-9B05-4E29-8B67-868824A82176}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30F6F85-7270-9B49-B589-F19140FD10CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="2025" windowWidth="27645" windowHeight="16935" xr2:uid="{40D5FA6D-D976-DB4C-877A-4E5297C3ACBE}"/>
+    <workbookView xWindow="3980" yWindow="2020" windowWidth="27640" windowHeight="16940" xr2:uid="{40D5FA6D-D976-DB4C-877A-4E5297C3ACBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -450,11 +442,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADDAD81-CBF2-0F48-BABD-E1A9E33D56C7}">
   <dimension ref="A1:Q109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="P94" sqref="P94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
@@ -556,8 +548,8 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="P2">
-        <f>2*O2</f>
-        <v>4.2000000000000003E-2</v>
+        <f>O2</f>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="Q2">
         <v>1.41</v>
@@ -610,8 +602,8 @@
         <v>0.02</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P66" si="0">2*O3</f>
-        <v>0.04</v>
+        <f t="shared" ref="P3:P66" si="0">O3</f>
+        <v>0.02</v>
       </c>
       <c r="Q3">
         <v>1.41</v>
@@ -665,7 +657,7 @@
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
-        <v>5.1999999999999998E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="Q4">
         <v>1.4</v>
@@ -719,7 +711,7 @@
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
-        <v>5.1999999999999998E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="Q5">
         <v>1.42</v>
@@ -773,7 +765,7 @@
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
-        <v>4.8000000000000001E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="Q6">
         <v>1.41</v>
@@ -817,7 +809,7 @@
         <v>0.5</v>
       </c>
       <c r="M7">
-        <f t="shared" ref="M7:M70" si="1">(K7+L7)/2</f>
+        <f t="shared" ref="M7:M68" si="1">(K7+L7)/2</f>
         <v>0.4</v>
       </c>
       <c r="N7">
@@ -828,7 +820,7 @@
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>4.2000000000000003E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="Q7">
         <v>1.41</v>
@@ -883,7 +875,7 @@
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
-        <v>5.8000000000000003E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="Q8">
         <v>1.41</v>
@@ -937,7 +929,7 @@
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
-        <v>5.1999999999999998E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="Q9">
         <v>1.41</v>
@@ -972,7 +964,7 @@
         <v>0.4</v>
       </c>
       <c r="J10">
-        <f t="shared" ref="J3:J66" si="2">(H10+I10)/2</f>
+        <f t="shared" ref="J10:J61" si="2">(H10+I10)/2</f>
         <v>0.36</v>
       </c>
       <c r="K10">
@@ -992,7 +984,7 @@
       </c>
       <c r="P10">
         <f t="shared" si="0"/>
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="Q10">
         <v>1.4</v>
@@ -1047,7 +1039,7 @@
       </c>
       <c r="P11">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="Q11">
         <v>1.4</v>
@@ -1103,7 +1095,7 @@
       </c>
       <c r="P12">
         <f t="shared" si="0"/>
-        <v>6.6000000000000003E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="Q12">
         <v>1.4</v>
@@ -1158,7 +1150,7 @@
       </c>
       <c r="P13">
         <f t="shared" si="0"/>
-        <v>5.8000000000000003E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="Q13">
         <v>1.41</v>
@@ -1212,7 +1204,7 @@
       </c>
       <c r="P14">
         <f t="shared" si="0"/>
-        <v>6.2E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="Q14">
         <v>1.39</v>
@@ -1267,7 +1259,7 @@
       </c>
       <c r="P15">
         <f t="shared" si="0"/>
-        <v>5.1999999999999998E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="Q15">
         <v>1.4</v>
@@ -1322,7 +1314,7 @@
       </c>
       <c r="P16">
         <f t="shared" si="0"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="Q16">
         <v>1.41</v>
@@ -1376,7 +1368,7 @@
       </c>
       <c r="P17">
         <f t="shared" si="0"/>
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="Q17">
         <v>1.41</v>
@@ -1430,7 +1422,7 @@
       </c>
       <c r="P18">
         <f t="shared" si="0"/>
-        <v>9.4E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="Q18">
         <v>1.36</v>
@@ -1484,7 +1476,7 @@
       </c>
       <c r="P19">
         <f t="shared" si="0"/>
-        <v>7.5999999999999998E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="Q19">
         <v>1.38</v>
@@ -1539,7 +1531,7 @@
       </c>
       <c r="P20">
         <f t="shared" si="0"/>
-        <v>0.112</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="Q20">
         <v>1.39</v>
@@ -1593,7 +1585,7 @@
       </c>
       <c r="P21">
         <f t="shared" si="0"/>
-        <v>8.5999999999999993E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="Q21">
         <v>1.41</v>
@@ -1647,7 +1639,7 @@
       </c>
       <c r="P22">
         <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q22">
         <v>1.35</v>
@@ -1701,7 +1693,7 @@
       </c>
       <c r="P23">
         <f t="shared" si="0"/>
-        <v>0.112</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="Q23">
         <v>1.37</v>
@@ -1755,7 +1747,7 @@
       </c>
       <c r="P24">
         <f t="shared" si="0"/>
-        <v>0.17599999999999999</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="Q24">
         <v>1.38</v>
@@ -1809,7 +1801,7 @@
       </c>
       <c r="P25">
         <f t="shared" si="0"/>
-        <v>0.13400000000000001</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="Q25">
         <v>1.39</v>
@@ -1835,7 +1827,7 @@
         <v>0.02</v>
       </c>
       <c r="G26">
-        <f t="shared" ref="G7:G26" si="3">(E26+F26)/2</f>
+        <f t="shared" ref="G26" si="3">(E26+F26)/2</f>
         <v>1.6E-2</v>
       </c>
       <c r="H26">
@@ -1864,7 +1856,7 @@
       </c>
       <c r="P26">
         <f t="shared" si="0"/>
-        <v>3.2000000000000001E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="Q26">
         <v>1.8</v>
@@ -1890,7 +1882,7 @@
         <v>0.02</v>
       </c>
       <c r="G27">
-        <f t="shared" ref="G27:G50" si="4">(E27+F27)/2</f>
+        <f t="shared" ref="G27:G49" si="4">(E27+F27)/2</f>
         <v>1.6E-2</v>
       </c>
       <c r="H27">
@@ -1920,7 +1912,7 @@
       </c>
       <c r="P27">
         <f t="shared" si="0"/>
-        <v>0.03</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Q27">
         <v>1.8</v>
@@ -1975,7 +1967,7 @@
       </c>
       <c r="P28">
         <f t="shared" si="0"/>
-        <v>4.2000000000000003E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="Q28">
         <v>1.81</v>
@@ -2030,7 +2022,7 @@
       </c>
       <c r="P29">
         <f t="shared" si="0"/>
-        <v>4.2000000000000003E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="Q29">
         <v>1.87</v>
@@ -2085,7 +2077,7 @@
       </c>
       <c r="P30">
         <f t="shared" si="0"/>
-        <v>3.5999999999999997E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="Q30">
         <v>1.8</v>
@@ -2141,7 +2133,7 @@
       </c>
       <c r="P31">
         <f t="shared" si="0"/>
-        <v>3.2000000000000001E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="Q31">
         <v>1.79</v>
@@ -2197,7 +2189,7 @@
       </c>
       <c r="P32">
         <f t="shared" si="0"/>
-        <v>4.3999999999999997E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="Q32">
         <v>1.79</v>
@@ -2252,7 +2244,7 @@
       </c>
       <c r="P33">
         <f t="shared" si="0"/>
-        <v>4.2000000000000003E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="Q33">
         <v>1.84</v>
@@ -2308,7 +2300,7 @@
       </c>
       <c r="P34">
         <f t="shared" si="0"/>
-        <v>4.5999999999999999E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="Q34">
         <v>1.78</v>
@@ -2365,7 +2357,7 @@
       </c>
       <c r="P35">
         <f t="shared" si="0"/>
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="Q35">
         <v>1.77</v>
@@ -2422,7 +2414,7 @@
       </c>
       <c r="P36">
         <f t="shared" si="0"/>
-        <v>5.6000000000000001E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="Q36">
         <v>1.78</v>
@@ -2478,7 +2470,7 @@
       </c>
       <c r="P37">
         <f t="shared" si="0"/>
-        <v>4.8000000000000001E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="Q37">
         <v>1.81</v>
@@ -2533,7 +2525,7 @@
       </c>
       <c r="P38">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="Q38">
         <v>1.72</v>
@@ -2589,7 +2581,7 @@
       </c>
       <c r="P39">
         <f t="shared" si="0"/>
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="Q39">
         <v>1.75</v>
@@ -2645,7 +2637,7 @@
       </c>
       <c r="P40">
         <f t="shared" si="0"/>
-        <v>5.3999999999999999E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="Q40">
         <v>1.78</v>
@@ -2700,7 +2692,7 @@
       </c>
       <c r="P41">
         <f t="shared" si="0"/>
-        <v>4.5999999999999999E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="Q41">
         <v>1.8</v>
@@ -2755,7 +2747,7 @@
       </c>
       <c r="P42">
         <f t="shared" si="0"/>
-        <v>7.1999999999999995E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="Q42">
         <v>1.71</v>
@@ -2810,7 +2802,7 @@
       </c>
       <c r="P43">
         <f t="shared" si="0"/>
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="Q43">
         <v>1.7</v>
@@ -2866,7 +2858,7 @@
       </c>
       <c r="P44">
         <f t="shared" si="0"/>
-        <v>8.5999999999999993E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="Q44">
         <v>1.74</v>
@@ -2921,7 +2913,7 @@
       </c>
       <c r="P45">
         <f t="shared" si="0"/>
-        <v>6.8000000000000005E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="Q45">
         <v>1.79</v>
@@ -2976,7 +2968,7 @@
       </c>
       <c r="P46">
         <f t="shared" si="0"/>
-        <v>0.10199999999999999</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="Q46">
         <v>1.65</v>
@@ -3031,7 +3023,7 @@
       </c>
       <c r="P47">
         <f t="shared" si="0"/>
-        <v>0.09</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="Q47">
         <v>1.68</v>
@@ -3086,7 +3078,7 @@
       </c>
       <c r="P48">
         <f t="shared" si="0"/>
-        <v>0.14199999999999999</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="Q48">
         <v>1.73</v>
@@ -3141,7 +3133,7 @@
       </c>
       <c r="P49">
         <f t="shared" si="0"/>
-        <v>0.108</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="Q49">
         <v>1.77</v>
@@ -3195,7 +3187,7 @@
       </c>
       <c r="P50">
         <f t="shared" si="0"/>
-        <v>3.5999999999999997E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="Q50">
         <v>2.83</v>
@@ -3250,7 +3242,7 @@
       </c>
       <c r="P51">
         <f t="shared" si="0"/>
-        <v>0.03</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Q51">
         <v>2.84</v>
@@ -3305,7 +3297,7 @@
       </c>
       <c r="P52">
         <f t="shared" si="0"/>
-        <v>4.5999999999999999E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="Q52">
         <v>2.9</v>
@@ -3359,7 +3351,7 @@
       </c>
       <c r="P53">
         <f t="shared" si="0"/>
-        <v>4.5999999999999999E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="Q53">
         <v>3.07</v>
@@ -3413,7 +3405,7 @@
       </c>
       <c r="P54">
         <f t="shared" si="0"/>
-        <v>3.5999999999999997E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="Q54">
         <v>2.81</v>
@@ -3468,7 +3460,7 @@
       </c>
       <c r="P55">
         <f t="shared" si="0"/>
-        <v>3.4000000000000002E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="Q55">
         <v>2.82</v>
@@ -3523,7 +3515,7 @@
       </c>
       <c r="P56">
         <f t="shared" si="0"/>
-        <v>4.8000000000000001E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="Q56">
         <v>2.84</v>
@@ -3577,7 +3569,7 @@
       </c>
       <c r="P57">
         <f t="shared" si="0"/>
-        <v>4.3999999999999997E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="Q57">
         <v>2.96</v>
@@ -3632,7 +3624,7 @@
       </c>
       <c r="P58">
         <f t="shared" si="0"/>
-        <v>4.5999999999999999E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="Q58">
         <v>2.77</v>
@@ -3688,7 +3680,7 @@
       </c>
       <c r="P59">
         <f t="shared" si="0"/>
-        <v>4.2000000000000003E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="Q59">
         <v>2.79</v>
@@ -3744,7 +3736,7 @@
       </c>
       <c r="P60">
         <f t="shared" si="0"/>
-        <v>5.3999999999999999E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="Q60">
         <v>2.85</v>
@@ -3799,7 +3791,7 @@
       </c>
       <c r="P61">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="Q61">
         <v>2.89</v>
@@ -3853,7 +3845,7 @@
       </c>
       <c r="P62">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="Q62">
         <v>2.71</v>
@@ -3908,7 +3900,7 @@
       </c>
       <c r="P63">
         <f t="shared" si="0"/>
-        <v>4.3999999999999997E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="Q63">
         <v>2.74</v>
@@ -3963,7 +3955,7 @@
       </c>
       <c r="P64">
         <f t="shared" si="0"/>
-        <v>5.6000000000000001E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="Q64">
         <v>2.8</v>
@@ -4017,7 +4009,7 @@
       </c>
       <c r="P65">
         <f t="shared" si="0"/>
-        <v>4.5999999999999999E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="Q65">
         <v>2.85</v>
@@ -4071,7 +4063,7 @@
       </c>
       <c r="P66">
         <f t="shared" si="0"/>
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="Q66">
         <v>2.65</v>
@@ -4125,8 +4117,8 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="P67">
-        <f t="shared" ref="P67:P97" si="5">2*O67</f>
-        <v>6.4000000000000001E-2</v>
+        <f t="shared" ref="P67:P97" si="5">O67</f>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="Q67">
         <v>2.68</v>
@@ -4181,7 +4173,7 @@
       </c>
       <c r="P68">
         <f t="shared" si="5"/>
-        <v>8.7999999999999995E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="Q68">
         <v>2.77</v>
@@ -4235,7 +4227,7 @@
       </c>
       <c r="P69">
         <f t="shared" si="5"/>
-        <v>7.5999999999999998E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="Q69">
         <v>2.82</v>
@@ -4289,7 +4281,7 @@
       </c>
       <c r="P70">
         <f t="shared" si="5"/>
-        <v>0.108</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="Q70">
         <v>2.59</v>
@@ -4333,7 +4325,7 @@
         <v>0.5</v>
       </c>
       <c r="M71">
-        <f t="shared" ref="M71:M97" si="6">(K71+L71)/2</f>
+        <f t="shared" ref="M71:M96" si="6">(K71+L71)/2</f>
         <v>0.4</v>
       </c>
       <c r="N71">
@@ -4344,7 +4336,7 @@
       </c>
       <c r="P71">
         <f t="shared" si="5"/>
-        <v>0.106</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="Q71">
         <v>2.6</v>
@@ -4398,7 +4390,7 @@
       </c>
       <c r="P72">
         <f t="shared" si="5"/>
-        <v>0.13800000000000001</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="Q72">
         <v>2.68</v>
@@ -4452,7 +4444,7 @@
       </c>
       <c r="P73">
         <f t="shared" si="5"/>
-        <v>0.114</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="Q73">
         <v>2.76</v>
@@ -4506,7 +4498,7 @@
       </c>
       <c r="P74">
         <f t="shared" si="5"/>
-        <v>3.5999999999999997E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="Q74">
         <v>6.81</v>
@@ -4561,7 +4553,7 @@
       </c>
       <c r="P75">
         <f t="shared" si="5"/>
-        <v>3.5999999999999997E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="Q75">
         <v>6.87</v>
@@ -4615,7 +4607,7 @@
       </c>
       <c r="P76">
         <f t="shared" si="5"/>
-        <v>5.1999999999999998E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="Q76">
         <v>7.08</v>
@@ -4669,7 +4661,7 @@
       </c>
       <c r="P77">
         <f t="shared" si="5"/>
-        <v>5.1999999999999998E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="Q77">
         <v>7.56</v>
@@ -4723,7 +4715,7 @@
       </c>
       <c r="P78">
         <f t="shared" si="5"/>
-        <v>4.2000000000000003E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="Q78">
         <v>6.75</v>
@@ -4778,7 +4770,7 @@
       </c>
       <c r="P79">
         <f t="shared" si="5"/>
-        <v>3.7999999999999999E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="Q79">
         <v>6.84</v>
@@ -4833,7 +4825,7 @@
       </c>
       <c r="P80">
         <f t="shared" si="5"/>
-        <v>5.1999999999999998E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="Q80">
         <v>6.98</v>
@@ -4887,7 +4879,7 @@
       </c>
       <c r="P81">
         <f t="shared" si="5"/>
-        <v>4.8000000000000001E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="Q81">
         <v>7.33</v>
@@ -4922,7 +4914,7 @@
         <v>0.4</v>
       </c>
       <c r="J82">
-        <f t="shared" ref="J67:J97" si="7">(H82+I82)/2</f>
+        <f t="shared" ref="J82:J85" si="7">(H82+I82)/2</f>
         <v>0.36</v>
       </c>
       <c r="K82">
@@ -4942,7 +4934,7 @@
       </c>
       <c r="P82">
         <f t="shared" si="5"/>
-        <v>5.1999999999999998E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="Q82">
         <v>6.66</v>
@@ -4998,7 +4990,7 @@
       </c>
       <c r="P83">
         <f t="shared" si="5"/>
-        <v>4.5999999999999999E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="Q83">
         <v>6.74</v>
@@ -5054,7 +5046,7 @@
       </c>
       <c r="P84">
         <f t="shared" si="5"/>
-        <v>5.8000000000000003E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="Q84">
         <v>6.9</v>
@@ -5109,7 +5101,7 @@
       </c>
       <c r="P85">
         <f t="shared" si="5"/>
-        <v>5.6000000000000001E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="Q85">
         <v>7.19</v>
@@ -5163,7 +5155,7 @@
       </c>
       <c r="P86">
         <f t="shared" si="5"/>
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="Q86">
         <v>6.61</v>
@@ -5218,7 +5210,7 @@
       </c>
       <c r="P87">
         <f t="shared" si="5"/>
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="Q87">
         <v>6.58</v>
@@ -5273,7 +5265,7 @@
       </c>
       <c r="P88">
         <f t="shared" si="5"/>
-        <v>6.6000000000000003E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="Q88">
         <v>6.77</v>
@@ -5327,7 +5319,7 @@
       </c>
       <c r="P89">
         <f t="shared" si="5"/>
-        <v>5.1999999999999998E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="Q89">
         <v>7.03</v>
@@ -5381,7 +5373,7 @@
       </c>
       <c r="P90">
         <f t="shared" si="5"/>
-        <v>9.6000000000000002E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="Q90">
         <v>6.38</v>
@@ -5436,7 +5428,7 @@
       </c>
       <c r="P91">
         <f t="shared" si="5"/>
-        <v>8.2000000000000003E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="Q91">
         <v>6.52</v>
@@ -5491,7 +5483,7 @@
       </c>
       <c r="P92">
         <f t="shared" si="5"/>
-        <v>0.10199999999999999</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="Q92">
         <v>6.63</v>
@@ -5545,7 +5537,7 @@
       </c>
       <c r="P93">
         <f t="shared" si="5"/>
-        <v>8.5999999999999993E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="Q93">
         <v>6.94</v>
@@ -5599,7 +5591,7 @@
       </c>
       <c r="P94">
         <f t="shared" si="5"/>
-        <v>0.16200000000000001</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="Q94">
         <v>5.96</v>
@@ -5654,7 +5646,7 @@
       </c>
       <c r="P95">
         <f t="shared" si="5"/>
-        <v>0.13</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="Q95">
         <v>6.22</v>
@@ -5709,7 +5701,7 @@
       </c>
       <c r="P96">
         <f t="shared" si="5"/>
-        <v>0.17599999999999999</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="Q96">
         <v>6.39</v>
@@ -5763,7 +5755,7 @@
       </c>
       <c r="P97">
         <f t="shared" si="5"/>
-        <v>0.13</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="Q97">
         <v>6.66</v>

--- a/database/sidis/expdata/5041.xlsx
+++ b/database/sidis/expdata/5041.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fafd12/GIT/jam3d/database/sidis/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30F6F85-7270-9B49-B589-F19140FD10CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78CF005-01AE-AC43-82C9-6CBE94FA7374}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="2020" windowWidth="27640" windowHeight="16940" xr2:uid="{40D5FA6D-D976-DB4C-877A-4E5297C3ACBE}"/>
+    <workbookView xWindow="3400" yWindow="1540" windowWidth="27640" windowHeight="16940" xr2:uid="{40D5FA6D-D976-DB4C-877A-4E5297C3ACBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -442,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADDAD81-CBF2-0F48-BABD-E1A9E33D56C7}">
   <dimension ref="A1:Q109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="P94" sqref="P94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N95" sqref="N95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1827,7 +1827,7 @@
         <v>0.02</v>
       </c>
       <c r="G26">
-        <f t="shared" ref="G26" si="3">(E26+F26)/2</f>
+        <f t="shared" ref="G26:G49" si="3">(E26+F26)/2</f>
         <v>1.6E-2</v>
       </c>
       <c r="H26">
@@ -1882,7 +1882,7 @@
         <v>0.02</v>
       </c>
       <c r="G27">
-        <f t="shared" ref="G27:G49" si="4">(E27+F27)/2</f>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="H27">
@@ -1938,7 +1938,7 @@
         <v>0.02</v>
       </c>
       <c r="G28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="H28">
@@ -1993,7 +1993,7 @@
         <v>0.02</v>
       </c>
       <c r="G29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="H29">
@@ -2048,7 +2048,7 @@
         <v>0.02</v>
       </c>
       <c r="G30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="H30">
@@ -2103,7 +2103,7 @@
         <v>0.02</v>
       </c>
       <c r="G31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="H31">
@@ -2159,7 +2159,7 @@
         <v>0.02</v>
       </c>
       <c r="G32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="H32">
@@ -2215,7 +2215,7 @@
         <v>0.02</v>
       </c>
       <c r="G33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="H33">
@@ -2270,7 +2270,7 @@
         <v>0.02</v>
       </c>
       <c r="G34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="H34">
@@ -2326,7 +2326,7 @@
         <v>0.02</v>
       </c>
       <c r="G35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="H35">
@@ -2383,7 +2383,7 @@
         <v>0.02</v>
       </c>
       <c r="G36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="H36">
@@ -2440,7 +2440,7 @@
         <v>0.02</v>
       </c>
       <c r="G37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="H37">
@@ -2496,7 +2496,7 @@
         <v>0.02</v>
       </c>
       <c r="G38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="H38">
@@ -2551,7 +2551,7 @@
         <v>0.02</v>
       </c>
       <c r="G39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="H39">
@@ -2607,7 +2607,7 @@
         <v>0.02</v>
       </c>
       <c r="G40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="H40">
@@ -2663,7 +2663,7 @@
         <v>0.02</v>
       </c>
       <c r="G41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="H41">
@@ -2718,7 +2718,7 @@
         <v>0.02</v>
       </c>
       <c r="G42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="H42">
@@ -2773,7 +2773,7 @@
         <v>0.02</v>
       </c>
       <c r="G43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="H43">
@@ -2828,7 +2828,7 @@
         <v>0.02</v>
       </c>
       <c r="G44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="H44">
@@ -2884,7 +2884,7 @@
         <v>0.02</v>
       </c>
       <c r="G45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="H45">
@@ -2939,7 +2939,7 @@
         <v>0.02</v>
       </c>
       <c r="G46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="H46">
@@ -2994,7 +2994,7 @@
         <v>0.02</v>
       </c>
       <c r="G47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="H47">
@@ -3049,7 +3049,7 @@
         <v>0.02</v>
       </c>
       <c r="G48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="H48">
@@ -3104,7 +3104,7 @@
         <v>0.02</v>
       </c>
       <c r="G49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="H49">
@@ -4117,7 +4117,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="P67">
-        <f t="shared" ref="P67:P97" si="5">O67</f>
+        <f t="shared" ref="P67:P97" si="4">O67</f>
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="Q67">
@@ -4172,7 +4172,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="P68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="Q68">
@@ -4226,7 +4226,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="P69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="Q69">
@@ -4280,7 +4280,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="P70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="Q70">
@@ -4325,7 +4325,7 @@
         <v>0.5</v>
       </c>
       <c r="M71">
-        <f t="shared" ref="M71:M96" si="6">(K71+L71)/2</f>
+        <f t="shared" ref="M71:M96" si="5">(K71+L71)/2</f>
         <v>0.4</v>
       </c>
       <c r="N71">
@@ -4335,7 +4335,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="P71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="Q71">
@@ -4389,7 +4389,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="P72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="Q72">
@@ -4443,7 +4443,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="P73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="Q73">
@@ -4497,7 +4497,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="P74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="Q74">
@@ -4542,7 +4542,7 @@
         <v>0.5</v>
       </c>
       <c r="M75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="N75">
@@ -4552,7 +4552,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="P75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="Q75">
@@ -4606,7 +4606,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="P76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="Q76">
@@ -4660,7 +4660,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="P77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="Q77">
@@ -4714,7 +4714,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="P78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="Q78">
@@ -4759,7 +4759,7 @@
         <v>0.5</v>
       </c>
       <c r="M79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="N79">
@@ -4769,7 +4769,7 @@
         <v>1.9E-2</v>
       </c>
       <c r="P79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.9E-2</v>
       </c>
       <c r="Q79">
@@ -4814,7 +4814,7 @@
         <v>0.64</v>
       </c>
       <c r="M80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N80">
@@ -4824,7 +4824,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="P80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="Q80">
@@ -4878,7 +4878,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="P81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.4E-2</v>
       </c>
       <c r="Q81">
@@ -4914,7 +4914,7 @@
         <v>0.4</v>
       </c>
       <c r="J82">
-        <f t="shared" ref="J82:J85" si="7">(H82+I82)/2</f>
+        <f t="shared" ref="J82:J85" si="6">(H82+I82)/2</f>
         <v>0.36</v>
       </c>
       <c r="K82">
@@ -4933,7 +4933,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="P82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="Q82">
@@ -4969,7 +4969,7 @@
         <v>0.4</v>
       </c>
       <c r="J83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.36</v>
       </c>
       <c r="K83">
@@ -4979,7 +4979,7 @@
         <v>0.5</v>
       </c>
       <c r="M83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="N83">
@@ -4989,7 +4989,7 @@
         <v>2.3E-2</v>
       </c>
       <c r="P83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.3E-2</v>
       </c>
       <c r="Q83">
@@ -5025,7 +5025,7 @@
         <v>0.4</v>
       </c>
       <c r="J84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.36</v>
       </c>
       <c r="K84">
@@ -5035,7 +5035,7 @@
         <v>0.64</v>
       </c>
       <c r="M84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N84">
@@ -5045,7 +5045,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="P84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="Q84">
@@ -5081,7 +5081,7 @@
         <v>0.4</v>
       </c>
       <c r="J85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.36</v>
       </c>
       <c r="K85">
@@ -5100,7 +5100,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="P85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="Q85">
@@ -5154,7 +5154,7 @@
         <v>0.03</v>
       </c>
       <c r="P86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.03</v>
       </c>
       <c r="Q86">
@@ -5199,7 +5199,7 @@
         <v>0.5</v>
       </c>
       <c r="M87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="N87">
@@ -5209,7 +5209,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="P87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="Q87">
@@ -5254,7 +5254,7 @@
         <v>0.64</v>
       </c>
       <c r="M88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N88">
@@ -5264,7 +5264,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="P88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="Q88">
@@ -5318,7 +5318,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="P89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="Q89">
@@ -5372,7 +5372,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="P90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="Q90">
@@ -5417,7 +5417,7 @@
         <v>0.5</v>
       </c>
       <c r="M91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="N91">
@@ -5427,7 +5427,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="P91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="Q91">
@@ -5472,7 +5472,7 @@
         <v>0.64</v>
       </c>
       <c r="M92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N92">
@@ -5482,7 +5482,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="P92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="Q92">
@@ -5536,7 +5536,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="P93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="Q93">
@@ -5590,7 +5590,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="P94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="Q94">
@@ -5635,7 +5635,7 @@
         <v>0.5</v>
       </c>
       <c r="M95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="N95">
@@ -5645,7 +5645,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="P95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="Q95">
@@ -5690,7 +5690,7 @@
         <v>0.64</v>
       </c>
       <c r="M96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="N96">
@@ -5700,7 +5700,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="P96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="Q96">
@@ -5754,7 +5754,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="P97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="Q97">
